--- a/doc/02_外部設計/02_外部設計書_A4.xlsx
+++ b/doc/02_外部設計/02_外部設計書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2F783BCB-4A47-47BD-BF2E-C4516CFCB08D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6989C8-11E2-4ACB-8227-A058358447D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="リスト機能" sheetId="5" r:id="rId3"/>
     <sheet name="リスト編集機能" sheetId="8" r:id="rId4"/>
     <sheet name="リスト内部機能" sheetId="9" r:id="rId5"/>
+    <sheet name="他ユーザーマイページ" sheetId="11" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">リスト機能!$5:$5</definedName>
@@ -25,13 +26,14 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="3">リスト編集機能!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">ログイン画面!$5:$5</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">新規登録機能!$5:$5</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">他ユーザーマイページ!$5:$5</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="99">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1024,6 +1026,240 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>・本画面ではページ移行は行わず、モーダルウィンドウ上で編集を行う。</t>
+    <rPh sb="1" eb="2">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・㉞のように、リストアイテム自体をクリックすると、㊳のようにアイテムの詳細が表示される。機能はマイページと同様である。</t>
+    <rPh sb="14" eb="16">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・㉟の公開・非公開ボタンはクリックすることで、レビューを公開か非公開の状態に切り替えることができる。初期状態は公開。</t>
+    <rPh sb="3" eb="5">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウカイ</t>
+    </rPh>
+    <rPh sb="31" eb="34">
+      <t>ヒコウカイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ショキ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>コウカイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・㊱のリスト選択項目では、リストの一覧がプルダウンメニューとして表示され、</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・㊲のゴミ箱アイコンをクリックすると、㊴の削除確認モーダルウインドウが表示される。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・㊴の削除確認モーダルウインドウでは、リストアイテムをリストから削除する。リストから削除するだけであって、</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>レビュー自体のデータは削除されない。</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・㊵の決定ボタンをクリックすると、㊷のモーダルウインドウが表示される。</t>
+    <rPh sb="3" eb="5">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>㊸のOKボタンを押せば、モーダルウインドウは閉じる。</t>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・㊶のキャンセルボタンを押すと、削除の処理が中止し、㉞などが表示される。</t>
+    <rPh sb="12" eb="13">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>チュウシ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>㊴リストアイテム削除機能</t>
+    <rPh sb="8" eb="10">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>他ユーザーマイページ画面</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イチガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>画面設計_他ユーザーマイページ</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他ユーザーマイページの表示方法</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>全体検索で表示される詳細ページやフォロー一覧に表示されるユーザーアイコンをクリックしたとき</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>他ユーザーマイページの機能</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>㊹フォロー機能</t>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>・</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -1363,7 +1599,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1536,6 +1772,12 @@
     </xf>
     <xf numFmtId="14" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4468,13 +4710,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>60961</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>179357</xdr:rowOff>
+      <xdr:rowOff>179356</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>131117</xdr:colOff>
+      <xdr:colOff>205559</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>117823</xdr:rowOff>
+      <xdr:rowOff>160019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4502,8 +4744,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="312421" y="1703357"/>
-          <a:ext cx="4596436" cy="2605466"/>
+          <a:off x="312421" y="1703356"/>
+          <a:ext cx="4670878" cy="2647663"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4637,15 +4879,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>144459</xdr:colOff>
+      <xdr:colOff>14918</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>7621</xdr:rowOff>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>167113</xdr:colOff>
+      <xdr:colOff>167639</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>106681</xdr:rowOff>
+      <xdr:rowOff>187943</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4673,8 +4915,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5173659" y="4579621"/>
-          <a:ext cx="4548934" cy="2575560"/>
+          <a:off x="5044118" y="4587240"/>
+          <a:ext cx="4679001" cy="2649203"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4745,7 +4987,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>29</a:t>
+            <a:t>39</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4818,7 +5060,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>30</a:t>
+            <a:t>40</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4891,7 +5133,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>31</a:t>
+            <a:t>41</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4964,7 +5206,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>32</a:t>
+            <a:t>42</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5037,7 +5279,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>33</a:t>
+            <a:t>43</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5121,13 +5363,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:colOff>205740</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
@@ -5144,7 +5386,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1935480" y="2621280"/>
+          <a:off x="1965960" y="2621280"/>
           <a:ext cx="480060" cy="411480"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5370,7 +5612,694 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>35</a:t>
+            <a:t>38</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>53515</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>167639</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>168018</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB7414AD-C86B-4C9D-8C85-CA2D6F5E065E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2674620" y="1196515"/>
+          <a:ext cx="5288279" cy="2972003"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>10897</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>125549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22B32FB5-E2CB-4DEF-A0BD-7CAF35E1D932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2712720" y="4392397"/>
+          <a:ext cx="5250180" cy="2972152"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>137335</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>144955</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BF15869-7D14-47EE-8932-C756E30B420A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5829300" y="1661335"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>46</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>15415</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="楕円 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEDB8C2D-CBDE-4C5E-96CA-F62D9D12C163}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3017520" y="1722295"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>44</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>183055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C492A397-5CA3-47B8-A42A-0CEB1FED6E30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4747260" y="1707055"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>45</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>99235</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="楕円 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1596B92-F1AD-4A8B-8B1D-FA3651AA9B9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3421380" y="2187115"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>47</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>30655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D59087B-B186-41FE-BBEA-3008C82E047A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5189220" y="2126155"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>48</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>30655</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38275</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="楕円 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F90F4815-8DB7-4EE0-8485-CCE288DB6A9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3086100" y="4793155"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>49</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>183055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="楕円 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFC90108-92FD-4589-ABB5-BF18C142AA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="4755055"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>50</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>106855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114475</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3E507C-F963-441D-ACEB-25BF248A04EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6835140" y="4869355"/>
+          <a:ext cx="495300" cy="388620"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
+            <a:t>51</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -14867,7 +15796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FB5A93-A96F-477C-982B-EB1F7FB283BD}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="AT35" sqref="AT35"/>
     </sheetView>
   </sheetViews>
@@ -19492,7 +20421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA868A82-967E-435B-A0F6-D81196034BA3}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="AH3" sqref="AH3:AN3"/>
     </sheetView>
   </sheetViews>
@@ -24094,10 +25023,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76237162-F799-4818-8226-707633267F4E}">
-  <dimension ref="A1:AN110"/>
+  <dimension ref="A1:AN115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -25906,7 +26835,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
       <c r="D45" s="21" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
@@ -25949,9 +26878,6 @@
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
@@ -25993,8 +26919,8 @@
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
-      <c r="D47" s="20" t="s">
-        <v>70</v>
+      <c r="D47" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
@@ -26036,9 +26962,6 @@
     <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
-      <c r="D48" s="21" t="s">
-        <v>71</v>
-      </c>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
@@ -26079,6 +27002,9 @@
     <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
+      <c r="D49" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
@@ -26158,8 +27084,8 @@
     <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
-      <c r="C51" s="21" t="s">
-        <v>72</v>
+      <c r="D51" s="21" t="s">
+        <v>84</v>
       </c>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
@@ -26239,9 +27165,7 @@
     <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
-      <c r="D53" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="D53" s="20"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
@@ -26281,6 +27205,7 @@
     <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
+      <c r="D54" s="20"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
@@ -26289,11 +27214,11 @@
       <c r="K54" s="8"/>
       <c r="L54" s="8"/>
       <c r="M54" s="8"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
       <c r="S54" s="8"/>
       <c r="T54" s="8"/>
       <c r="U54" s="8"/>
@@ -26320,9 +27245,7 @@
     <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
-      <c r="D55" s="21" t="s">
-        <v>74</v>
-      </c>
+      <c r="D55" s="20"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
@@ -26331,11 +27254,11 @@
       <c r="K55" s="8"/>
       <c r="L55" s="8"/>
       <c r="M55" s="8"/>
-      <c r="N55" s="2"/>
-      <c r="O55" s="2"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
       <c r="S55" s="8"/>
       <c r="T55" s="8"/>
       <c r="U55" s="8"/>
@@ -26362,6 +27285,7 @@
     <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
+      <c r="E56" s="20"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
@@ -26370,11 +27294,11 @@
       <c r="K56" s="8"/>
       <c r="L56" s="8"/>
       <c r="M56" s="8"/>
-      <c r="N56" s="2"/>
-      <c r="O56" s="2"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
       <c r="S56" s="8"/>
       <c r="T56" s="8"/>
       <c r="U56" s="8"/>
@@ -26401,9 +27325,7 @@
     <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
-      <c r="D57" s="21" t="s">
-        <v>75</v>
-      </c>
+      <c r="E57" s="20"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
@@ -26443,9 +27365,7 @@
     <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="E58" s="21" t="s">
-        <v>76</v>
-      </c>
+      <c r="D58" s="20"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
@@ -26485,7 +27405,6 @@
     <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
@@ -26494,11 +27413,11 @@
       <c r="K59" s="8"/>
       <c r="L59" s="8"/>
       <c r="M59" s="8"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="8"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
       <c r="S59" s="8"/>
       <c r="T59" s="8"/>
       <c r="U59" s="8"/>
@@ -26522,14 +27441,12 @@
       <c r="AM59" s="7"/>
       <c r="AN59" s="7"/>
     </row>
-    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
-      <c r="C60" s="25"/>
-      <c r="D60" s="21" t="s">
-        <v>77</v>
+      <c r="C60" s="21" t="s">
+        <v>91</v>
       </c>
-      <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
@@ -26538,11 +27455,11 @@
       <c r="K60" s="8"/>
       <c r="L60" s="8"/>
       <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
       <c r="S60" s="8"/>
       <c r="T60" s="8"/>
       <c r="U60" s="8"/>
@@ -26569,8 +27486,6 @@
     <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
@@ -26579,11 +27494,11 @@
       <c r="K61" s="8"/>
       <c r="L61" s="8"/>
       <c r="M61" s="8"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="8"/>
-      <c r="P61" s="8"/>
-      <c r="Q61" s="8"/>
-      <c r="R61" s="8"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
       <c r="S61" s="8"/>
       <c r="T61" s="8"/>
       <c r="U61" s="8"/>
@@ -26610,7 +27525,9 @@
     <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
-      <c r="E62" s="20"/>
+      <c r="D62" s="21" t="s">
+        <v>85</v>
+      </c>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
@@ -26650,7 +27567,6 @@
     <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
-      <c r="E63" s="21"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
@@ -26690,7 +27606,10 @@
     <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
-      <c r="E64" s="21"/>
+      <c r="D64" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
@@ -26727,10 +27646,13 @@
       <c r="AM64" s="7"/>
       <c r="AN64" s="7"/>
     </row>
-    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
-      <c r="E65" s="8"/>
+      <c r="C65" s="25"/>
+      <c r="E65" s="21" t="s">
+        <v>87</v>
+      </c>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
@@ -26767,10 +27689,9 @@
       <c r="AM65" s="7"/>
       <c r="AN65" s="7"/>
     </row>
-    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
-      <c r="C66" s="25"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
@@ -26811,8 +27732,9 @@
     <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="8"/>
+      <c r="D67" s="21" t="s">
+        <v>88</v>
+      </c>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
@@ -26852,7 +27774,9 @@
     <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="21" t="s">
+        <v>89</v>
+      </c>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
@@ -26892,7 +27816,7 @@
     <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
@@ -26932,7 +27856,11 @@
     <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
-      <c r="E70" s="20"/>
+      <c r="D70" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
       <c r="I70" s="8"/>
@@ -26968,10 +27896,11 @@
       <c r="AM70" s="7"/>
       <c r="AN70" s="7"/>
     </row>
-    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
-      <c r="E71" s="20"/>
+      <c r="C71" s="25"/>
+      <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
@@ -27011,6 +27940,7 @@
     <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
+      <c r="D72" s="20"/>
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
@@ -27051,9 +27981,7 @@
     <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="8"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="20"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
@@ -27092,477 +28020,468 @@
     </row>
     <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="6"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
-      <c r="W74" s="10"/>
-      <c r="X74" s="10"/>
-      <c r="Y74" s="10"/>
-      <c r="Z74" s="10"/>
-      <c r="AA74" s="10"/>
-      <c r="AB74" s="10"/>
-      <c r="AC74" s="10"/>
-      <c r="AD74" s="10"/>
-      <c r="AE74" s="10"/>
-      <c r="AF74" s="10"/>
-      <c r="AG74" s="10"/>
-      <c r="AH74" s="10"/>
-      <c r="AI74" s="10"/>
-      <c r="AJ74" s="10"/>
-      <c r="AK74" s="10"/>
-      <c r="AL74" s="10"/>
-      <c r="AM74" s="11"/>
+      <c r="B74" s="6"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="7"/>
       <c r="AN74" s="7"/>
     </row>
     <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="9"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
-      <c r="W75" s="10"/>
-      <c r="X75" s="10"/>
-      <c r="Y75" s="10"/>
-      <c r="Z75" s="10"/>
-      <c r="AA75" s="10"/>
-      <c r="AB75" s="10"/>
-      <c r="AC75" s="10"/>
-      <c r="AD75" s="10"/>
-      <c r="AE75" s="10"/>
-      <c r="AF75" s="10"/>
-      <c r="AG75" s="10"/>
-      <c r="AH75" s="10"/>
-      <c r="AI75" s="10"/>
-      <c r="AJ75" s="10"/>
-      <c r="AK75" s="10"/>
-      <c r="AL75" s="10"/>
-      <c r="AM75" s="10"/>
-      <c r="AN75" s="11"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="E75" s="20"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
     </row>
     <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="3"/>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
-      <c r="F76" s="4"/>
-      <c r="G76" s="4"/>
-      <c r="H76" s="4"/>
-      <c r="I76" s="4"/>
-      <c r="J76" s="4"/>
-      <c r="K76" s="4"/>
-      <c r="L76" s="4"/>
-      <c r="M76" s="4"/>
-      <c r="N76" s="4"/>
-      <c r="O76" s="4"/>
-      <c r="P76" s="4"/>
-      <c r="Q76" s="4"/>
-      <c r="R76" s="4"/>
-      <c r="S76" s="4"/>
-      <c r="T76" s="4"/>
-      <c r="U76" s="4"/>
-      <c r="V76" s="4"/>
-      <c r="W76" s="4"/>
-      <c r="X76" s="4"/>
-      <c r="Y76" s="4"/>
-      <c r="Z76" s="4"/>
-      <c r="AA76" s="4"/>
-      <c r="AB76" s="4"/>
-      <c r="AC76" s="4"/>
-      <c r="AD76" s="4"/>
-      <c r="AE76" s="4"/>
-      <c r="AF76" s="4"/>
-      <c r="AG76" s="4"/>
-      <c r="AH76" s="4"/>
-      <c r="AI76" s="4"/>
-      <c r="AJ76" s="4"/>
-      <c r="AK76" s="4"/>
-      <c r="AL76" s="4"/>
-      <c r="AM76" s="4"/>
-      <c r="AN76" s="5"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
     </row>
     <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="6"/>
-      <c r="B77" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-      <c r="E77" s="4"/>
-      <c r="F77" s="4"/>
-      <c r="G77" s="4"/>
-      <c r="H77" s="4"/>
-      <c r="I77" s="4"/>
-      <c r="J77" s="4"/>
-      <c r="K77" s="4"/>
-      <c r="L77" s="4"/>
-      <c r="M77" s="4"/>
-      <c r="N77" s="4"/>
-      <c r="O77" s="4"/>
-      <c r="P77" s="4"/>
-      <c r="Q77" s="4"/>
-      <c r="R77" s="4"/>
-      <c r="S77" s="4"/>
-      <c r="T77" s="4"/>
-      <c r="U77" s="4"/>
-      <c r="V77" s="4"/>
-      <c r="W77" s="4"/>
-      <c r="X77" s="4"/>
-      <c r="Y77" s="4"/>
-      <c r="Z77" s="4"/>
-      <c r="AA77" s="4"/>
-      <c r="AB77" s="4"/>
-      <c r="AC77" s="4"/>
-      <c r="AD77" s="4"/>
-      <c r="AE77" s="4"/>
-      <c r="AF77" s="4"/>
-      <c r="AG77" s="4"/>
-      <c r="AH77" s="4"/>
-      <c r="AI77" s="4"/>
-      <c r="AJ77" s="4"/>
-      <c r="AK77" s="4"/>
-      <c r="AL77" s="4"/>
-      <c r="AM77" s="5"/>
+      <c r="B77" s="6"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="7"/>
       <c r="AN77" s="7"/>
     </row>
     <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-      <c r="F78" s="2"/>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2"/>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="2"/>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
-      <c r="T78" s="2"/>
-      <c r="U78" s="2"/>
-      <c r="V78" s="2"/>
-      <c r="W78" s="2"/>
-      <c r="X78" s="2"/>
-      <c r="Y78" s="2"/>
-      <c r="Z78" s="2"/>
-      <c r="AA78" s="2"/>
-      <c r="AB78" s="2"/>
-      <c r="AC78" s="2"/>
-      <c r="AD78" s="2"/>
-      <c r="AE78" s="2"/>
-      <c r="AF78" s="2"/>
-      <c r="AG78" s="2"/>
-      <c r="AH78" s="2"/>
-      <c r="AI78" s="2"/>
-      <c r="AJ78" s="2"/>
-      <c r="AK78" s="2"/>
-      <c r="AL78" s="2"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
       <c r="AM78" s="7"/>
       <c r="AN78" s="7"/>
     </row>
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
+      <c r="AI79" s="10"/>
+      <c r="AJ79" s="10"/>
+      <c r="AK79" s="10"/>
+      <c r="AL79" s="10"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="11"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="5"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14" t="s">
+      <c r="C84" s="13"/>
+      <c r="D84" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="13"/>
-      <c r="H79" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="16"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="17"/>
-      <c r="L79" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="M79" s="15"/>
-      <c r="N79" s="17"/>
-      <c r="O79" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="17"/>
-      <c r="S79" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="T79" s="17"/>
-      <c r="U79" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="V79" s="17"/>
-      <c r="W79" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="X79" s="15"/>
-      <c r="Y79" s="15"/>
-      <c r="Z79" s="17"/>
-      <c r="AA79" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB79" s="15"/>
-      <c r="AC79" s="17"/>
-      <c r="AD79" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE79" s="15"/>
-      <c r="AF79" s="15"/>
-      <c r="AG79" s="15"/>
-      <c r="AH79" s="15"/>
-      <c r="AI79" s="15"/>
-      <c r="AJ79" s="15"/>
-      <c r="AK79" s="15"/>
-      <c r="AL79" s="15"/>
-      <c r="AM79" s="18"/>
-      <c r="AN79" s="7"/>
-    </row>
-    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="6"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="13"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="16"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="17"/>
-      <c r="L80" s="14"/>
-      <c r="M80" s="15"/>
-      <c r="N80" s="17"/>
-      <c r="O80" s="14"/>
-      <c r="P80" s="15"/>
-      <c r="Q80" s="15"/>
-      <c r="R80" s="17"/>
-      <c r="S80" s="14"/>
-      <c r="T80" s="17"/>
-      <c r="U80" s="14"/>
-      <c r="V80" s="17"/>
-      <c r="W80" s="14"/>
-      <c r="X80" s="15"/>
-      <c r="Y80" s="15"/>
-      <c r="Z80" s="17"/>
-      <c r="AA80" s="14"/>
-      <c r="AB80" s="15"/>
-      <c r="AC80" s="17"/>
-      <c r="AD80" s="14"/>
-      <c r="AE80" s="15"/>
-      <c r="AF80" s="15"/>
-      <c r="AG80" s="15"/>
-      <c r="AH80" s="15"/>
-      <c r="AI80" s="15"/>
-      <c r="AJ80" s="15"/>
-      <c r="AK80" s="15"/>
-      <c r="AL80" s="15"/>
-      <c r="AM80" s="18"/>
-      <c r="AN80" s="7"/>
-    </row>
-    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="6"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="13"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="16"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="17"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="15"/>
-      <c r="N81" s="17"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="15"/>
-      <c r="R81" s="17"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="17"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="17"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="15"/>
-      <c r="Y81" s="15"/>
-      <c r="Z81" s="17"/>
-      <c r="AA81" s="14"/>
-      <c r="AB81" s="15"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="14"/>
-      <c r="AE81" s="15"/>
-      <c r="AF81" s="15"/>
-      <c r="AG81" s="15"/>
-      <c r="AH81" s="15"/>
-      <c r="AI81" s="15"/>
-      <c r="AJ81" s="15"/>
-      <c r="AK81" s="15"/>
-      <c r="AL81" s="15"/>
-      <c r="AM81" s="18"/>
-      <c r="AN81" s="7"/>
-    </row>
-    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="6"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="13"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="16"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="17"/>
-      <c r="L82" s="14"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="17"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
-      <c r="R82" s="17"/>
-      <c r="S82" s="14"/>
-      <c r="T82" s="17"/>
-      <c r="U82" s="14"/>
-      <c r="V82" s="17"/>
-      <c r="W82" s="14"/>
-      <c r="X82" s="15"/>
-      <c r="Y82" s="15"/>
-      <c r="Z82" s="17"/>
-      <c r="AA82" s="14"/>
-      <c r="AB82" s="15"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="14"/>
-      <c r="AE82" s="15"/>
-      <c r="AF82" s="15"/>
-      <c r="AG82" s="15"/>
-      <c r="AH82" s="15"/>
-      <c r="AI82" s="15"/>
-      <c r="AJ82" s="15"/>
-      <c r="AK82" s="15"/>
-      <c r="AL82" s="15"/>
-      <c r="AM82" s="18"/>
-      <c r="AN82" s="7"/>
-    </row>
-    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="6"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="13"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="16"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="17"/>
-      <c r="L83" s="14"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="17"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="14"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="14"/>
-      <c r="V83" s="17"/>
-      <c r="W83" s="14"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="14"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="14"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="15"/>
-      <c r="AH83" s="15"/>
-      <c r="AI83" s="15"/>
-      <c r="AJ83" s="15"/>
-      <c r="AK83" s="15"/>
-      <c r="AL83" s="15"/>
-      <c r="AM83" s="18"/>
-      <c r="AN83" s="7"/>
-    </row>
-    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="6"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
       <c r="G84" s="13"/>
-      <c r="H84" s="14"/>
+      <c r="H84" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="I84" s="16"/>
       <c r="J84" s="15"/>
       <c r="K84" s="17"/>
-      <c r="L84" s="14"/>
+      <c r="L84" s="14" t="s">
+        <v>13</v>
+      </c>
       <c r="M84" s="15"/>
       <c r="N84" s="17"/>
-      <c r="O84" s="14"/>
+      <c r="O84" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="P84" s="15"/>
       <c r="Q84" s="15"/>
       <c r="R84" s="17"/>
-      <c r="S84" s="14"/>
+      <c r="S84" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="T84" s="17"/>
-      <c r="U84" s="14"/>
+      <c r="U84" s="14" t="s">
+        <v>14</v>
+      </c>
       <c r="V84" s="17"/>
-      <c r="W84" s="14"/>
+      <c r="W84" s="14" t="s">
+        <v>15</v>
+      </c>
       <c r="X84" s="15"/>
       <c r="Y84" s="15"/>
       <c r="Z84" s="17"/>
-      <c r="AA84" s="14"/>
+      <c r="AA84" s="14" t="s">
+        <v>18</v>
+      </c>
       <c r="AB84" s="15"/>
       <c r="AC84" s="17"/>
-      <c r="AD84" s="14"/>
+      <c r="AD84" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="AE84" s="15"/>
       <c r="AF84" s="15"/>
       <c r="AG84" s="15"/>
@@ -28625,46 +29544,5059 @@
       <c r="AN109" s="7"/>
     </row>
     <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="9"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-      <c r="T110" s="10"/>
-      <c r="U110" s="10"/>
-      <c r="V110" s="10"/>
-      <c r="W110" s="10"/>
-      <c r="X110" s="10"/>
-      <c r="Y110" s="10"/>
-      <c r="Z110" s="10"/>
-      <c r="AA110" s="10"/>
-      <c r="AB110" s="10"/>
-      <c r="AC110" s="10"/>
-      <c r="AD110" s="10"/>
-      <c r="AE110" s="10"/>
-      <c r="AF110" s="10"/>
-      <c r="AG110" s="10"/>
-      <c r="AH110" s="10"/>
-      <c r="AI110" s="10"/>
-      <c r="AJ110" s="10"/>
-      <c r="AK110" s="10"/>
-      <c r="AL110" s="10"/>
-      <c r="AM110" s="10"/>
-      <c r="AN110" s="11"/>
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="14"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AI111" s="15"/>
+      <c r="AJ111" s="15"/>
+      <c r="AK111" s="15"/>
+      <c r="AL111" s="15"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="14"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+      <c r="AH112" s="15"/>
+      <c r="AI112" s="15"/>
+      <c r="AJ112" s="15"/>
+      <c r="AK112" s="15"/>
+      <c r="AL112" s="15"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="15"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="14"/>
+      <c r="AE113" s="15"/>
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15"/>
+      <c r="AH113" s="15"/>
+      <c r="AI113" s="15"/>
+      <c r="AJ113" s="15"/>
+      <c r="AK113" s="15"/>
+      <c r="AL113" s="15"/>
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="7"/>
+    </row>
+    <row r="114" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="15"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="14"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+      <c r="AH114" s="15"/>
+      <c r="AI114" s="15"/>
+      <c r="AJ114" s="15"/>
+      <c r="AK114" s="15"/>
+      <c r="AL114" s="15"/>
+      <c r="AM114" s="18"/>
+      <c r="AN114" s="7"/>
+    </row>
+    <row r="115" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="10"/>
+      <c r="AB115" s="10"/>
+      <c r="AC115" s="10"/>
+      <c r="AD115" s="10"/>
+      <c r="AE115" s="10"/>
+      <c r="AF115" s="10"/>
+      <c r="AG115" s="10"/>
+      <c r="AH115" s="10"/>
+      <c r="AI115" s="10"/>
+      <c r="AJ115" s="10"/>
+      <c r="AK115" s="10"/>
+      <c r="AL115" s="10"/>
+      <c r="AM115" s="10"/>
+      <c r="AN115" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="N3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
+    <mergeCell ref="A1:J4"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:AN1"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:V2"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Y2:AE2"/>
+    <mergeCell ref="AF2:AG2"/>
+    <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="K3:M3"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
+  <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;C&amp;8&amp;P／&amp;"／,標準"&amp;N</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0601EE-23C6-4B9A-BB32-C34FE19398F9}">
+  <dimension ref="A1:AN115"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="43" width="3.6640625" style="1"/>
+    <col min="44" max="44" width="3.6640625" style="1" customWidth="1"/>
+    <col min="45" max="16384" width="3.6640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
+    </row>
+    <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
+        <v>7</v>
+      </c>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG2" s="51"/>
+      <c r="AH2" s="52"/>
+      <c r="AI2" s="52"/>
+      <c r="AJ2" s="52"/>
+      <c r="AK2" s="52"/>
+      <c r="AL2" s="52"/>
+      <c r="AM2" s="52"/>
+      <c r="AN2" s="53"/>
+    </row>
+    <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="X3" s="46"/>
+      <c r="Y3" s="47">
+        <v>45455</v>
+      </c>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="46"/>
+      <c r="AE3" s="46"/>
+      <c r="AF3" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="60">
+        <v>45455</v>
+      </c>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="56"/>
+    </row>
+    <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="33"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="57" t="s">
+        <v>5</v>
+      </c>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="58"/>
+      <c r="P4" s="58"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="58"/>
+      <c r="S4" s="58"/>
+      <c r="T4" s="58"/>
+      <c r="U4" s="58"/>
+      <c r="V4" s="58"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="58"/>
+      <c r="Y4" s="58"/>
+      <c r="Z4" s="58"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="58"/>
+      <c r="AC4" s="58"/>
+      <c r="AD4" s="58"/>
+      <c r="AE4" s="58"/>
+      <c r="AF4" s="58"/>
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="59"/>
+    </row>
+    <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="3"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+      <c r="AE6" s="4"/>
+      <c r="AF6" s="4"/>
+      <c r="AG6" s="4"/>
+      <c r="AH6" s="4"/>
+      <c r="AI6" s="4"/>
+      <c r="AJ6" s="4"/>
+      <c r="AK6" s="4"/>
+      <c r="AL6" s="4"/>
+      <c r="AM6" s="4"/>
+      <c r="AN6" s="5"/>
+    </row>
+    <row r="7" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+      <c r="B7" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+      <c r="AE7" s="4"/>
+      <c r="AF7" s="4"/>
+      <c r="AG7" s="4"/>
+      <c r="AH7" s="4"/>
+      <c r="AI7" s="4"/>
+      <c r="AJ7" s="4"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="7"/>
+    </row>
+    <row r="8" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+    </row>
+    <row r="9" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+    </row>
+    <row r="10" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="8"/>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
+      <c r="AE10" s="8"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8"/>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="8"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+    </row>
+    <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
+      <c r="R11" s="8"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
+      <c r="AE11" s="8"/>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8"/>
+      <c r="AI11" s="8"/>
+      <c r="AJ11" s="8"/>
+      <c r="AK11" s="8"/>
+      <c r="AL11" s="8"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+    </row>
+    <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
+      <c r="AE12" s="8"/>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8"/>
+      <c r="AI12" s="8"/>
+      <c r="AJ12" s="8"/>
+      <c r="AK12" s="8"/>
+      <c r="AL12" s="8"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+    </row>
+    <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="8"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
+      <c r="AE13" s="8"/>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8"/>
+      <c r="AI13" s="8"/>
+      <c r="AJ13" s="8"/>
+      <c r="AK13" s="8"/>
+      <c r="AL13" s="8"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+    </row>
+    <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="8"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
+      <c r="AE14" s="8"/>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8"/>
+      <c r="AI14" s="8"/>
+      <c r="AJ14" s="8"/>
+      <c r="AK14" s="8"/>
+      <c r="AL14" s="8"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+    </row>
+    <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="8"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="8"/>
+      <c r="R15" s="8"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
+      <c r="AE15" s="8"/>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8"/>
+      <c r="AI15" s="8"/>
+      <c r="AJ15" s="8"/>
+      <c r="AK15" s="8"/>
+      <c r="AL15" s="8"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+    </row>
+    <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="8"/>
+      <c r="S16" s="8"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="8"/>
+      <c r="Y16" s="8"/>
+      <c r="Z16" s="8"/>
+      <c r="AA16" s="8"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="8"/>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="8"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+    </row>
+    <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="8"/>
+      <c r="S17" s="8"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
+      <c r="AE17" s="8"/>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8"/>
+      <c r="AI17" s="8"/>
+      <c r="AJ17" s="8"/>
+      <c r="AK17" s="8"/>
+      <c r="AL17" s="8"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+    </row>
+    <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AK18" s="8"/>
+      <c r="AL18" s="8"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+    </row>
+    <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AK19" s="8"/>
+      <c r="AL19" s="8"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+    </row>
+    <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AK20" s="8"/>
+      <c r="AL20" s="8"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+    </row>
+    <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AK21" s="8"/>
+      <c r="AL21" s="8"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+    </row>
+    <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
+      <c r="AE22" s="8"/>
+      <c r="AF22" s="8"/>
+      <c r="AG22" s="8"/>
+      <c r="AH22" s="8"/>
+      <c r="AI22" s="8"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="8"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+    </row>
+    <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
+      <c r="AE23" s="8"/>
+      <c r="AF23" s="8"/>
+      <c r="AG23" s="8"/>
+      <c r="AH23" s="8"/>
+      <c r="AI23" s="8"/>
+      <c r="AJ23" s="8"/>
+      <c r="AK23" s="8"/>
+      <c r="AL23" s="8"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+    </row>
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
+      <c r="AE24" s="8"/>
+      <c r="AF24" s="8"/>
+      <c r="AG24" s="8"/>
+      <c r="AH24" s="8"/>
+      <c r="AI24" s="8"/>
+      <c r="AJ24" s="8"/>
+      <c r="AK24" s="8"/>
+      <c r="AL24" s="8"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+    </row>
+    <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
+      <c r="AE25" s="8"/>
+      <c r="AF25" s="8"/>
+      <c r="AG25" s="8"/>
+      <c r="AH25" s="8"/>
+      <c r="AI25" s="8"/>
+      <c r="AJ25" s="8"/>
+      <c r="AK25" s="8"/>
+      <c r="AL25" s="8"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+    </row>
+    <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
+      <c r="AE26" s="8"/>
+      <c r="AF26" s="8"/>
+      <c r="AG26" s="8"/>
+      <c r="AH26" s="8"/>
+      <c r="AI26" s="8"/>
+      <c r="AJ26" s="8"/>
+      <c r="AK26" s="8"/>
+      <c r="AL26" s="8"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+    </row>
+    <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
+      <c r="AE27" s="8"/>
+      <c r="AF27" s="8"/>
+      <c r="AG27" s="8"/>
+      <c r="AH27" s="8"/>
+      <c r="AI27" s="8"/>
+      <c r="AJ27" s="8"/>
+      <c r="AK27" s="8"/>
+      <c r="AL27" s="8"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+    </row>
+    <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="8"/>
+      <c r="K28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
+      <c r="AE28" s="8"/>
+      <c r="AF28" s="8"/>
+      <c r="AG28" s="8"/>
+      <c r="AH28" s="8"/>
+      <c r="AI28" s="8"/>
+      <c r="AJ28" s="8"/>
+      <c r="AK28" s="8"/>
+      <c r="AL28" s="8"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+    </row>
+    <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AE29" s="8"/>
+      <c r="AF29" s="8"/>
+      <c r="AG29" s="8"/>
+      <c r="AH29" s="8"/>
+      <c r="AI29" s="8"/>
+      <c r="AJ29" s="8"/>
+      <c r="AK29" s="8"/>
+      <c r="AL29" s="8"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+    </row>
+    <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
+      <c r="AE30" s="8"/>
+      <c r="AF30" s="8"/>
+      <c r="AG30" s="8"/>
+      <c r="AH30" s="8"/>
+      <c r="AI30" s="8"/>
+      <c r="AJ30" s="8"/>
+      <c r="AK30" s="8"/>
+      <c r="AL30" s="8"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+    </row>
+    <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
+      <c r="AE31" s="8"/>
+      <c r="AF31" s="8"/>
+      <c r="AG31" s="8"/>
+      <c r="AH31" s="8"/>
+      <c r="AI31" s="8"/>
+      <c r="AJ31" s="8"/>
+      <c r="AK31" s="8"/>
+      <c r="AL31" s="8"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+    </row>
+    <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="8"/>
+      <c r="K32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
+      <c r="AE32" s="8"/>
+      <c r="AF32" s="8"/>
+      <c r="AG32" s="8"/>
+      <c r="AH32" s="8"/>
+      <c r="AI32" s="8"/>
+      <c r="AJ32" s="8"/>
+      <c r="AK32" s="8"/>
+      <c r="AL32" s="8"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+    </row>
+    <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="8"/>
+      <c r="R33" s="8"/>
+      <c r="S33" s="8"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="8"/>
+      <c r="X33" s="8"/>
+      <c r="Y33" s="8"/>
+      <c r="Z33" s="8"/>
+      <c r="AA33" s="8"/>
+      <c r="AB33" s="8"/>
+      <c r="AC33" s="8"/>
+      <c r="AD33" s="8"/>
+      <c r="AE33" s="8"/>
+      <c r="AF33" s="8"/>
+      <c r="AG33" s="8"/>
+      <c r="AH33" s="8"/>
+      <c r="AI33" s="8"/>
+      <c r="AJ33" s="8"/>
+      <c r="AK33" s="8"/>
+      <c r="AL33" s="8"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+    </row>
+    <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="8"/>
+      <c r="R34" s="8"/>
+      <c r="S34" s="8"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="8"/>
+      <c r="X34" s="8"/>
+      <c r="Y34" s="8"/>
+      <c r="Z34" s="8"/>
+      <c r="AA34" s="8"/>
+      <c r="AB34" s="8"/>
+      <c r="AC34" s="8"/>
+      <c r="AD34" s="8"/>
+      <c r="AE34" s="8"/>
+      <c r="AF34" s="8"/>
+      <c r="AG34" s="8"/>
+      <c r="AH34" s="8"/>
+      <c r="AI34" s="8"/>
+      <c r="AJ34" s="8"/>
+      <c r="AK34" s="8"/>
+      <c r="AL34" s="8"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+    </row>
+    <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
+      <c r="AB35" s="8"/>
+      <c r="AC35" s="8"/>
+      <c r="AD35" s="8"/>
+      <c r="AE35" s="8"/>
+      <c r="AF35" s="8"/>
+      <c r="AG35" s="8"/>
+      <c r="AH35" s="8"/>
+      <c r="AI35" s="8"/>
+      <c r="AJ35" s="8"/>
+      <c r="AK35" s="8"/>
+      <c r="AL35" s="8"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+    </row>
+    <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="8"/>
+      <c r="Z36" s="8"/>
+      <c r="AA36" s="8"/>
+      <c r="AB36" s="8"/>
+      <c r="AC36" s="8"/>
+      <c r="AD36" s="8"/>
+      <c r="AE36" s="8"/>
+      <c r="AF36" s="8"/>
+      <c r="AG36" s="8"/>
+      <c r="AH36" s="8"/>
+      <c r="AI36" s="8"/>
+      <c r="AJ36" s="8"/>
+      <c r="AK36" s="8"/>
+      <c r="AL36" s="8"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+    </row>
+    <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="U37" s="8"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="8"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="8"/>
+      <c r="AA37" s="8"/>
+      <c r="AB37" s="8"/>
+      <c r="AC37" s="8"/>
+      <c r="AD37" s="8"/>
+      <c r="AE37" s="8"/>
+      <c r="AF37" s="8"/>
+      <c r="AG37" s="8"/>
+      <c r="AH37" s="8"/>
+      <c r="AI37" s="8"/>
+      <c r="AJ37" s="8"/>
+      <c r="AK37" s="8"/>
+      <c r="AL37" s="8"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+    </row>
+    <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="8"/>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8"/>
+      <c r="Z38" s="8"/>
+      <c r="AA38" s="8"/>
+      <c r="AB38" s="8"/>
+      <c r="AC38" s="8"/>
+      <c r="AD38" s="8"/>
+      <c r="AE38" s="8"/>
+      <c r="AF38" s="8"/>
+      <c r="AG38" s="8"/>
+      <c r="AH38" s="8"/>
+      <c r="AI38" s="8"/>
+      <c r="AJ38" s="8"/>
+      <c r="AK38" s="8"/>
+      <c r="AL38" s="8"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+    </row>
+    <row r="39" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="6"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="10"/>
+      <c r="S39" s="10"/>
+      <c r="T39" s="10"/>
+      <c r="U39" s="10"/>
+      <c r="V39" s="10"/>
+      <c r="W39" s="10"/>
+      <c r="X39" s="10"/>
+      <c r="Y39" s="10"/>
+      <c r="Z39" s="10"/>
+      <c r="AA39" s="10"/>
+      <c r="AB39" s="10"/>
+      <c r="AC39" s="10"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="10"/>
+      <c r="AF39" s="10"/>
+      <c r="AG39" s="10"/>
+      <c r="AH39" s="10"/>
+      <c r="AI39" s="10"/>
+      <c r="AJ39" s="10"/>
+      <c r="AK39" s="10"/>
+      <c r="AL39" s="10"/>
+      <c r="AM39" s="11"/>
+      <c r="AN39" s="7"/>
+    </row>
+    <row r="40" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="10"/>
+      <c r="S40" s="10"/>
+      <c r="T40" s="10"/>
+      <c r="U40" s="10"/>
+      <c r="V40" s="10"/>
+      <c r="W40" s="10"/>
+      <c r="X40" s="10"/>
+      <c r="Y40" s="10"/>
+      <c r="Z40" s="10"/>
+      <c r="AA40" s="10"/>
+      <c r="AB40" s="10"/>
+      <c r="AC40" s="10"/>
+      <c r="AD40" s="10"/>
+      <c r="AE40" s="10"/>
+      <c r="AF40" s="10"/>
+      <c r="AG40" s="10"/>
+      <c r="AH40" s="10"/>
+      <c r="AI40" s="10"/>
+      <c r="AJ40" s="10"/>
+      <c r="AK40" s="10"/>
+      <c r="AL40" s="10"/>
+      <c r="AM40" s="10"/>
+      <c r="AN40" s="11"/>
+    </row>
+    <row r="41" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="5"/>
+    </row>
+    <row r="42" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="6"/>
+      <c r="B42" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+      <c r="AF42" s="4"/>
+      <c r="AG42" s="4"/>
+      <c r="AH42" s="4"/>
+      <c r="AI42" s="4"/>
+      <c r="AJ42" s="4"/>
+      <c r="AK42" s="4"/>
+      <c r="AL42" s="4"/>
+      <c r="AM42" s="5"/>
+      <c r="AN42" s="7"/>
+    </row>
+    <row r="43" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+    </row>
+    <row r="44" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+    </row>
+    <row r="45" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
+      <c r="AB45" s="8"/>
+      <c r="AC45" s="8"/>
+      <c r="AD45" s="8"/>
+      <c r="AE45" s="8"/>
+      <c r="AF45" s="8"/>
+      <c r="AG45" s="8"/>
+      <c r="AH45" s="8"/>
+      <c r="AI45" s="8"/>
+      <c r="AJ45" s="8"/>
+      <c r="AK45" s="8"/>
+      <c r="AL45" s="8"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+    </row>
+    <row r="46" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+    </row>
+    <row r="47" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="U47" s="8"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="8"/>
+      <c r="X47" s="8"/>
+      <c r="Y47" s="8"/>
+      <c r="Z47" s="8"/>
+      <c r="AA47" s="8"/>
+      <c r="AB47" s="8"/>
+      <c r="AC47" s="8"/>
+      <c r="AD47" s="8"/>
+      <c r="AE47" s="8"/>
+      <c r="AF47" s="8"/>
+      <c r="AG47" s="8"/>
+      <c r="AH47" s="8"/>
+      <c r="AI47" s="8"/>
+      <c r="AJ47" s="8"/>
+      <c r="AK47" s="8"/>
+      <c r="AL47" s="8"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+    </row>
+    <row r="48" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="8"/>
+      <c r="K48" s="8"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="U48" s="8"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="8"/>
+      <c r="X48" s="8"/>
+      <c r="Y48" s="8"/>
+      <c r="Z48" s="8"/>
+      <c r="AA48" s="8"/>
+      <c r="AB48" s="8"/>
+      <c r="AC48" s="8"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="8"/>
+      <c r="AF48" s="8"/>
+      <c r="AG48" s="8"/>
+      <c r="AH48" s="8"/>
+      <c r="AI48" s="8"/>
+      <c r="AJ48" s="8"/>
+      <c r="AK48" s="8"/>
+      <c r="AL48" s="8"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+    </row>
+    <row r="49" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="D49" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="U49" s="8"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="8"/>
+      <c r="X49" s="8"/>
+      <c r="Y49" s="8"/>
+      <c r="Z49" s="8"/>
+      <c r="AA49" s="8"/>
+      <c r="AB49" s="8"/>
+      <c r="AC49" s="8"/>
+      <c r="AD49" s="8"/>
+      <c r="AE49" s="8"/>
+      <c r="AF49" s="8"/>
+      <c r="AG49" s="8"/>
+      <c r="AH49" s="8"/>
+      <c r="AI49" s="8"/>
+      <c r="AJ49" s="8"/>
+      <c r="AK49" s="8"/>
+      <c r="AL49" s="8"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+    </row>
+    <row r="50" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="E50" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="U50" s="8"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="8"/>
+      <c r="X50" s="8"/>
+      <c r="Y50" s="8"/>
+      <c r="Z50" s="8"/>
+      <c r="AA50" s="8"/>
+      <c r="AB50" s="8"/>
+      <c r="AC50" s="8"/>
+      <c r="AD50" s="8"/>
+      <c r="AE50" s="8"/>
+      <c r="AF50" s="8"/>
+      <c r="AG50" s="8"/>
+      <c r="AH50" s="8"/>
+      <c r="AI50" s="8"/>
+      <c r="AJ50" s="8"/>
+      <c r="AK50" s="8"/>
+      <c r="AL50" s="8"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+    </row>
+    <row r="51" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="U51" s="8"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="8"/>
+      <c r="X51" s="8"/>
+      <c r="Y51" s="8"/>
+      <c r="Z51" s="8"/>
+      <c r="AA51" s="8"/>
+      <c r="AB51" s="8"/>
+      <c r="AC51" s="8"/>
+      <c r="AD51" s="8"/>
+      <c r="AE51" s="8"/>
+      <c r="AF51" s="8"/>
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+    </row>
+    <row r="52" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="8"/>
+      <c r="K52" s="8"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="U52" s="8"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="8"/>
+      <c r="X52" s="8"/>
+      <c r="Y52" s="8"/>
+      <c r="Z52" s="8"/>
+      <c r="AA52" s="8"/>
+      <c r="AB52" s="8"/>
+      <c r="AC52" s="8"/>
+      <c r="AD52" s="8"/>
+      <c r="AE52" s="8"/>
+      <c r="AF52" s="8"/>
+      <c r="AG52" s="8"/>
+      <c r="AH52" s="8"/>
+      <c r="AI52" s="8"/>
+      <c r="AJ52" s="8"/>
+      <c r="AK52" s="8"/>
+      <c r="AL52" s="8"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+    </row>
+    <row r="53" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="D53" s="20"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="U53" s="8"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="8"/>
+      <c r="X53" s="8"/>
+      <c r="Y53" s="8"/>
+      <c r="Z53" s="8"/>
+      <c r="AA53" s="8"/>
+      <c r="AB53" s="8"/>
+      <c r="AC53" s="8"/>
+      <c r="AD53" s="8"/>
+      <c r="AE53" s="8"/>
+      <c r="AF53" s="8"/>
+      <c r="AG53" s="8"/>
+      <c r="AH53" s="8"/>
+      <c r="AI53" s="8"/>
+      <c r="AJ53" s="8"/>
+      <c r="AK53" s="8"/>
+      <c r="AL53" s="8"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+    </row>
+    <row r="54" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="D54" s="20"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+    </row>
+    <row r="55" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="D55" s="20"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="8"/>
+      <c r="Q55" s="8"/>
+      <c r="R55" s="8"/>
+      <c r="S55" s="8"/>
+      <c r="T55" s="8"/>
+      <c r="U55" s="8"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="8"/>
+      <c r="X55" s="8"/>
+      <c r="Y55" s="8"/>
+      <c r="Z55" s="8"/>
+      <c r="AA55" s="8"/>
+      <c r="AB55" s="8"/>
+      <c r="AC55" s="8"/>
+      <c r="AD55" s="8"/>
+      <c r="AE55" s="8"/>
+      <c r="AF55" s="8"/>
+      <c r="AG55" s="8"/>
+      <c r="AH55" s="8"/>
+      <c r="AI55" s="8"/>
+      <c r="AJ55" s="8"/>
+      <c r="AK55" s="8"/>
+      <c r="AL55" s="8"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+    </row>
+    <row r="56" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="8"/>
+      <c r="P56" s="8"/>
+      <c r="Q56" s="8"/>
+      <c r="R56" s="8"/>
+      <c r="S56" s="8"/>
+      <c r="T56" s="8"/>
+      <c r="U56" s="8"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="8"/>
+      <c r="X56" s="8"/>
+      <c r="Y56" s="8"/>
+      <c r="Z56" s="8"/>
+      <c r="AA56" s="8"/>
+      <c r="AB56" s="8"/>
+      <c r="AC56" s="8"/>
+      <c r="AD56" s="8"/>
+      <c r="AE56" s="8"/>
+      <c r="AF56" s="8"/>
+      <c r="AG56" s="8"/>
+      <c r="AH56" s="8"/>
+      <c r="AI56" s="8"/>
+      <c r="AJ56" s="8"/>
+      <c r="AK56" s="8"/>
+      <c r="AL56" s="8"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+    </row>
+    <row r="57" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="8"/>
+      <c r="P57" s="8"/>
+      <c r="Q57" s="8"/>
+      <c r="R57" s="8"/>
+      <c r="S57" s="8"/>
+      <c r="T57" s="8"/>
+      <c r="U57" s="8"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="8"/>
+      <c r="X57" s="8"/>
+      <c r="Y57" s="8"/>
+      <c r="Z57" s="8"/>
+      <c r="AA57" s="8"/>
+      <c r="AB57" s="8"/>
+      <c r="AC57" s="8"/>
+      <c r="AD57" s="8"/>
+      <c r="AE57" s="8"/>
+      <c r="AF57" s="8"/>
+      <c r="AG57" s="8"/>
+      <c r="AH57" s="8"/>
+      <c r="AI57" s="8"/>
+      <c r="AJ57" s="8"/>
+      <c r="AK57" s="8"/>
+      <c r="AL57" s="8"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+    </row>
+    <row r="58" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="D58" s="20"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="8"/>
+      <c r="Q58" s="8"/>
+      <c r="R58" s="8"/>
+      <c r="S58" s="8"/>
+      <c r="T58" s="8"/>
+      <c r="U58" s="8"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="8"/>
+      <c r="X58" s="8"/>
+      <c r="Y58" s="8"/>
+      <c r="Z58" s="8"/>
+      <c r="AA58" s="8"/>
+      <c r="AB58" s="8"/>
+      <c r="AC58" s="8"/>
+      <c r="AD58" s="8"/>
+      <c r="AE58" s="8"/>
+      <c r="AF58" s="8"/>
+      <c r="AG58" s="8"/>
+      <c r="AH58" s="8"/>
+      <c r="AI58" s="8"/>
+      <c r="AJ58" s="8"/>
+      <c r="AK58" s="8"/>
+      <c r="AL58" s="8"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+    </row>
+    <row r="59" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="8"/>
+      <c r="T59" s="8"/>
+      <c r="U59" s="8"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="8"/>
+      <c r="X59" s="8"/>
+      <c r="Y59" s="8"/>
+      <c r="Z59" s="8"/>
+      <c r="AA59" s="8"/>
+      <c r="AB59" s="8"/>
+      <c r="AC59" s="8"/>
+      <c r="AD59" s="8"/>
+      <c r="AE59" s="8"/>
+      <c r="AF59" s="8"/>
+      <c r="AG59" s="8"/>
+      <c r="AH59" s="8"/>
+      <c r="AI59" s="8"/>
+      <c r="AJ59" s="8"/>
+      <c r="AK59" s="8"/>
+      <c r="AL59" s="8"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+    </row>
+    <row r="60" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+      <c r="AB60" s="8"/>
+      <c r="AC60" s="8"/>
+      <c r="AD60" s="8"/>
+      <c r="AE60" s="8"/>
+      <c r="AF60" s="8"/>
+      <c r="AG60" s="8"/>
+      <c r="AH60" s="8"/>
+      <c r="AI60" s="8"/>
+      <c r="AJ60" s="8"/>
+      <c r="AK60" s="8"/>
+      <c r="AL60" s="8"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+    </row>
+    <row r="61" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="8"/>
+      <c r="T61" s="8"/>
+      <c r="U61" s="8"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="8"/>
+      <c r="X61" s="8"/>
+      <c r="Y61" s="8"/>
+      <c r="Z61" s="8"/>
+      <c r="AA61" s="8"/>
+      <c r="AB61" s="8"/>
+      <c r="AC61" s="8"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="8"/>
+      <c r="AF61" s="8"/>
+      <c r="AG61" s="8"/>
+      <c r="AH61" s="8"/>
+      <c r="AI61" s="8"/>
+      <c r="AJ61" s="8"/>
+      <c r="AK61" s="8"/>
+      <c r="AL61" s="8"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+    </row>
+    <row r="62" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="D62" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="8"/>
+      <c r="Q62" s="8"/>
+      <c r="R62" s="8"/>
+      <c r="S62" s="8"/>
+      <c r="T62" s="8"/>
+      <c r="U62" s="8"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="8"/>
+      <c r="X62" s="8"/>
+      <c r="Y62" s="8"/>
+      <c r="Z62" s="8"/>
+      <c r="AA62" s="8"/>
+      <c r="AB62" s="8"/>
+      <c r="AC62" s="8"/>
+      <c r="AD62" s="8"/>
+      <c r="AE62" s="8"/>
+      <c r="AF62" s="8"/>
+      <c r="AG62" s="8"/>
+      <c r="AH62" s="8"/>
+      <c r="AI62" s="8"/>
+      <c r="AJ62" s="8"/>
+      <c r="AK62" s="8"/>
+      <c r="AL62" s="8"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+    </row>
+    <row r="63" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="8"/>
+      <c r="Q63" s="8"/>
+      <c r="R63" s="8"/>
+      <c r="S63" s="8"/>
+      <c r="T63" s="8"/>
+      <c r="U63" s="8"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="8"/>
+      <c r="X63" s="8"/>
+      <c r="Y63" s="8"/>
+      <c r="Z63" s="8"/>
+      <c r="AA63" s="8"/>
+      <c r="AB63" s="8"/>
+      <c r="AC63" s="8"/>
+      <c r="AD63" s="8"/>
+      <c r="AE63" s="8"/>
+      <c r="AF63" s="8"/>
+      <c r="AG63" s="8"/>
+      <c r="AH63" s="8"/>
+      <c r="AI63" s="8"/>
+      <c r="AJ63" s="8"/>
+      <c r="AK63" s="8"/>
+      <c r="AL63" s="8"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+    </row>
+    <row r="64" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="D64" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="8"/>
+      <c r="Q64" s="8"/>
+      <c r="R64" s="8"/>
+      <c r="S64" s="8"/>
+      <c r="T64" s="8"/>
+      <c r="U64" s="8"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="8"/>
+      <c r="X64" s="8"/>
+      <c r="Y64" s="8"/>
+      <c r="Z64" s="8"/>
+      <c r="AA64" s="8"/>
+      <c r="AB64" s="8"/>
+      <c r="AC64" s="8"/>
+      <c r="AD64" s="8"/>
+      <c r="AE64" s="8"/>
+      <c r="AF64" s="8"/>
+      <c r="AG64" s="8"/>
+      <c r="AH64" s="8"/>
+      <c r="AI64" s="8"/>
+      <c r="AJ64" s="8"/>
+      <c r="AK64" s="8"/>
+      <c r="AL64" s="8"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+    </row>
+    <row r="65" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="25"/>
+      <c r="E65" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="8"/>
+      <c r="K65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="8"/>
+      <c r="P65" s="8"/>
+      <c r="Q65" s="8"/>
+      <c r="R65" s="8"/>
+      <c r="S65" s="8"/>
+      <c r="T65" s="8"/>
+      <c r="U65" s="8"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="8"/>
+      <c r="X65" s="8"/>
+      <c r="Y65" s="8"/>
+      <c r="Z65" s="8"/>
+      <c r="AA65" s="8"/>
+      <c r="AB65" s="8"/>
+      <c r="AC65" s="8"/>
+      <c r="AD65" s="8"/>
+      <c r="AE65" s="8"/>
+      <c r="AF65" s="8"/>
+      <c r="AG65" s="8"/>
+      <c r="AH65" s="8"/>
+      <c r="AI65" s="8"/>
+      <c r="AJ65" s="8"/>
+      <c r="AK65" s="8"/>
+      <c r="AL65" s="8"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+    </row>
+    <row r="66" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
+      <c r="AB66" s="8"/>
+      <c r="AC66" s="8"/>
+      <c r="AD66" s="8"/>
+      <c r="AE66" s="8"/>
+      <c r="AF66" s="8"/>
+      <c r="AG66" s="8"/>
+      <c r="AH66" s="8"/>
+      <c r="AI66" s="8"/>
+      <c r="AJ66" s="8"/>
+      <c r="AK66" s="8"/>
+      <c r="AL66" s="8"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+    </row>
+    <row r="67" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="D67" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="8"/>
+      <c r="Q67" s="8"/>
+      <c r="R67" s="8"/>
+      <c r="S67" s="8"/>
+      <c r="T67" s="8"/>
+      <c r="U67" s="8"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="8"/>
+      <c r="X67" s="8"/>
+      <c r="Y67" s="8"/>
+      <c r="Z67" s="8"/>
+      <c r="AA67" s="8"/>
+      <c r="AB67" s="8"/>
+      <c r="AC67" s="8"/>
+      <c r="AD67" s="8"/>
+      <c r="AE67" s="8"/>
+      <c r="AF67" s="8"/>
+      <c r="AG67" s="8"/>
+      <c r="AH67" s="8"/>
+      <c r="AI67" s="8"/>
+      <c r="AJ67" s="8"/>
+      <c r="AK67" s="8"/>
+      <c r="AL67" s="8"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+    </row>
+    <row r="68" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="E68" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="8"/>
+      <c r="Q68" s="8"/>
+      <c r="R68" s="8"/>
+      <c r="S68" s="8"/>
+      <c r="T68" s="8"/>
+      <c r="U68" s="8"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="8"/>
+      <c r="X68" s="8"/>
+      <c r="Y68" s="8"/>
+      <c r="Z68" s="8"/>
+      <c r="AA68" s="8"/>
+      <c r="AB68" s="8"/>
+      <c r="AC68" s="8"/>
+      <c r="AD68" s="8"/>
+      <c r="AE68" s="8"/>
+      <c r="AF68" s="8"/>
+      <c r="AG68" s="8"/>
+      <c r="AH68" s="8"/>
+      <c r="AI68" s="8"/>
+      <c r="AJ68" s="8"/>
+      <c r="AK68" s="8"/>
+      <c r="AL68" s="8"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+    </row>
+    <row r="69" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="8"/>
+      <c r="Q69" s="8"/>
+      <c r="R69" s="8"/>
+      <c r="S69" s="8"/>
+      <c r="T69" s="8"/>
+      <c r="U69" s="8"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="8"/>
+      <c r="X69" s="8"/>
+      <c r="Y69" s="8"/>
+      <c r="Z69" s="8"/>
+      <c r="AA69" s="8"/>
+      <c r="AB69" s="8"/>
+      <c r="AC69" s="8"/>
+      <c r="AD69" s="8"/>
+      <c r="AE69" s="8"/>
+      <c r="AF69" s="8"/>
+      <c r="AG69" s="8"/>
+      <c r="AH69" s="8"/>
+      <c r="AI69" s="8"/>
+      <c r="AJ69" s="8"/>
+      <c r="AK69" s="8"/>
+      <c r="AL69" s="8"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+    </row>
+    <row r="70" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="D70" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="8"/>
+      <c r="Q70" s="8"/>
+      <c r="R70" s="8"/>
+      <c r="S70" s="8"/>
+      <c r="T70" s="8"/>
+      <c r="U70" s="8"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="8"/>
+      <c r="X70" s="8"/>
+      <c r="Y70" s="8"/>
+      <c r="Z70" s="8"/>
+      <c r="AA70" s="8"/>
+      <c r="AB70" s="8"/>
+      <c r="AC70" s="8"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="8"/>
+      <c r="AF70" s="8"/>
+      <c r="AG70" s="8"/>
+      <c r="AH70" s="8"/>
+      <c r="AI70" s="8"/>
+      <c r="AJ70" s="8"/>
+      <c r="AK70" s="8"/>
+      <c r="AL70" s="8"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+    </row>
+    <row r="71" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="25"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="8"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="8"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="8"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="8"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="8"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="8"/>
+      <c r="AA71" s="8"/>
+      <c r="AB71" s="8"/>
+      <c r="AC71" s="8"/>
+      <c r="AD71" s="8"/>
+      <c r="AE71" s="8"/>
+      <c r="AF71" s="8"/>
+      <c r="AG71" s="8"/>
+      <c r="AH71" s="8"/>
+      <c r="AI71" s="8"/>
+      <c r="AJ71" s="8"/>
+      <c r="AK71" s="8"/>
+      <c r="AL71" s="8"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+    </row>
+    <row r="72" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="8"/>
+      <c r="AA72" s="8"/>
+      <c r="AB72" s="8"/>
+      <c r="AC72" s="8"/>
+      <c r="AD72" s="8"/>
+      <c r="AE72" s="8"/>
+      <c r="AF72" s="8"/>
+      <c r="AG72" s="8"/>
+      <c r="AH72" s="8"/>
+      <c r="AI72" s="8"/>
+      <c r="AJ72" s="8"/>
+      <c r="AK72" s="8"/>
+      <c r="AL72" s="8"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+    </row>
+    <row r="73" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="E73" s="20"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
+      <c r="AB73" s="8"/>
+      <c r="AC73" s="8"/>
+      <c r="AD73" s="8"/>
+      <c r="AE73" s="8"/>
+      <c r="AF73" s="8"/>
+      <c r="AG73" s="8"/>
+      <c r="AH73" s="8"/>
+      <c r="AI73" s="8"/>
+      <c r="AJ73" s="8"/>
+      <c r="AK73" s="8"/>
+      <c r="AL73" s="8"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+    </row>
+    <row r="74" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="E74" s="20"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="8"/>
+      <c r="Q74" s="8"/>
+      <c r="R74" s="8"/>
+      <c r="S74" s="8"/>
+      <c r="T74" s="8"/>
+      <c r="U74" s="8"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="8"/>
+      <c r="X74" s="8"/>
+      <c r="Y74" s="8"/>
+      <c r="Z74" s="8"/>
+      <c r="AA74" s="8"/>
+      <c r="AB74" s="8"/>
+      <c r="AC74" s="8"/>
+      <c r="AD74" s="8"/>
+      <c r="AE74" s="8"/>
+      <c r="AF74" s="8"/>
+      <c r="AG74" s="8"/>
+      <c r="AH74" s="8"/>
+      <c r="AI74" s="8"/>
+      <c r="AJ74" s="8"/>
+      <c r="AK74" s="8"/>
+      <c r="AL74" s="8"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+    </row>
+    <row r="75" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="E75" s="20"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="8"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="8"/>
+      <c r="P75" s="8"/>
+      <c r="Q75" s="8"/>
+      <c r="R75" s="8"/>
+      <c r="S75" s="8"/>
+      <c r="T75" s="8"/>
+      <c r="U75" s="8"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="8"/>
+      <c r="X75" s="8"/>
+      <c r="Y75" s="8"/>
+      <c r="Z75" s="8"/>
+      <c r="AA75" s="8"/>
+      <c r="AB75" s="8"/>
+      <c r="AC75" s="8"/>
+      <c r="AD75" s="8"/>
+      <c r="AE75" s="8"/>
+      <c r="AF75" s="8"/>
+      <c r="AG75" s="8"/>
+      <c r="AH75" s="8"/>
+      <c r="AI75" s="8"/>
+      <c r="AJ75" s="8"/>
+      <c r="AK75" s="8"/>
+      <c r="AL75" s="8"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+    </row>
+    <row r="76" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="E76" s="20"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="8"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="S76" s="8"/>
+      <c r="T76" s="8"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+      <c r="AB76" s="8"/>
+      <c r="AC76" s="8"/>
+      <c r="AD76" s="8"/>
+      <c r="AE76" s="8"/>
+      <c r="AF76" s="8"/>
+      <c r="AG76" s="8"/>
+      <c r="AH76" s="8"/>
+      <c r="AI76" s="8"/>
+      <c r="AJ76" s="8"/>
+      <c r="AK76" s="8"/>
+      <c r="AL76" s="8"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+    </row>
+    <row r="77" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="8"/>
+      <c r="Q77" s="8"/>
+      <c r="R77" s="8"/>
+      <c r="S77" s="8"/>
+      <c r="T77" s="8"/>
+      <c r="U77" s="8"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="8"/>
+      <c r="X77" s="8"/>
+      <c r="Y77" s="8"/>
+      <c r="Z77" s="8"/>
+      <c r="AA77" s="8"/>
+      <c r="AB77" s="8"/>
+      <c r="AC77" s="8"/>
+      <c r="AD77" s="8"/>
+      <c r="AE77" s="8"/>
+      <c r="AF77" s="8"/>
+      <c r="AG77" s="8"/>
+      <c r="AH77" s="8"/>
+      <c r="AI77" s="8"/>
+      <c r="AJ77" s="8"/>
+      <c r="AK77" s="8"/>
+      <c r="AL77" s="8"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+    </row>
+    <row r="78" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="8"/>
+      <c r="Q78" s="8"/>
+      <c r="R78" s="8"/>
+      <c r="S78" s="8"/>
+      <c r="T78" s="8"/>
+      <c r="U78" s="8"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="8"/>
+      <c r="X78" s="8"/>
+      <c r="Y78" s="8"/>
+      <c r="Z78" s="8"/>
+      <c r="AA78" s="8"/>
+      <c r="AB78" s="8"/>
+      <c r="AC78" s="8"/>
+      <c r="AD78" s="8"/>
+      <c r="AE78" s="8"/>
+      <c r="AF78" s="8"/>
+      <c r="AG78" s="8"/>
+      <c r="AH78" s="8"/>
+      <c r="AI78" s="8"/>
+      <c r="AJ78" s="8"/>
+      <c r="AK78" s="8"/>
+      <c r="AL78" s="8"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+    </row>
+    <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="6"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="10"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+      <c r="Z79" s="10"/>
+      <c r="AA79" s="10"/>
+      <c r="AB79" s="10"/>
+      <c r="AC79" s="10"/>
+      <c r="AD79" s="10"/>
+      <c r="AE79" s="10"/>
+      <c r="AF79" s="10"/>
+      <c r="AG79" s="10"/>
+      <c r="AH79" s="10"/>
+      <c r="AI79" s="10"/>
+      <c r="AJ79" s="10"/>
+      <c r="AK79" s="10"/>
+      <c r="AL79" s="10"/>
+      <c r="AM79" s="11"/>
+      <c r="AN79" s="7"/>
+    </row>
+    <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="10"/>
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+      <c r="Z80" s="10"/>
+      <c r="AA80" s="10"/>
+      <c r="AB80" s="10"/>
+      <c r="AC80" s="10"/>
+      <c r="AD80" s="10"/>
+      <c r="AE80" s="10"/>
+      <c r="AF80" s="10"/>
+      <c r="AG80" s="10"/>
+      <c r="AH80" s="10"/>
+      <c r="AI80" s="10"/>
+      <c r="AJ80" s="10"/>
+      <c r="AK80" s="10"/>
+      <c r="AL80" s="10"/>
+      <c r="AM80" s="10"/>
+      <c r="AN80" s="11"/>
+    </row>
+    <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="4"/>
+      <c r="Q81" s="4"/>
+      <c r="R81" s="4"/>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+      <c r="AE81" s="4"/>
+      <c r="AF81" s="4"/>
+      <c r="AG81" s="4"/>
+      <c r="AH81" s="4"/>
+      <c r="AI81" s="4"/>
+      <c r="AJ81" s="4"/>
+      <c r="AK81" s="4"/>
+      <c r="AL81" s="4"/>
+      <c r="AM81" s="4"/>
+      <c r="AN81" s="5"/>
+    </row>
+    <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="6"/>
+      <c r="B82" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="4"/>
+      <c r="Q82" s="4"/>
+      <c r="R82" s="4"/>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+      <c r="AE82" s="4"/>
+      <c r="AF82" s="4"/>
+      <c r="AG82" s="4"/>
+      <c r="AH82" s="4"/>
+      <c r="AI82" s="4"/>
+      <c r="AJ82" s="4"/>
+      <c r="AK82" s="4"/>
+      <c r="AL82" s="4"/>
+      <c r="AM82" s="5"/>
+      <c r="AN82" s="7"/>
+    </row>
+    <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+      <c r="AH83" s="2"/>
+      <c r="AI83" s="2"/>
+      <c r="AJ83" s="2"/>
+      <c r="AK83" s="2"/>
+      <c r="AL83" s="2"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+    </row>
+    <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6"/>
+      <c r="B84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="16"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="17"/>
+      <c r="L84" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M84" s="15"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="T84" s="17"/>
+      <c r="U84" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="V84" s="17"/>
+      <c r="W84" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="X84" s="15"/>
+      <c r="Y84" s="15"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB84" s="15"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE84" s="15"/>
+      <c r="AF84" s="15"/>
+      <c r="AG84" s="15"/>
+      <c r="AH84" s="15"/>
+      <c r="AI84" s="15"/>
+      <c r="AJ84" s="15"/>
+      <c r="AK84" s="15"/>
+      <c r="AL84" s="15"/>
+      <c r="AM84" s="18"/>
+      <c r="AN84" s="7"/>
+    </row>
+    <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="6"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="13"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="15"/>
+      <c r="K85" s="17"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="15"/>
+      <c r="N85" s="17"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="15"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="17"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="15"/>
+      <c r="Y85" s="15"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="14"/>
+      <c r="AB85" s="15"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="14"/>
+      <c r="AE85" s="15"/>
+      <c r="AF85" s="15"/>
+      <c r="AG85" s="15"/>
+      <c r="AH85" s="15"/>
+      <c r="AI85" s="15"/>
+      <c r="AJ85" s="15"/>
+      <c r="AK85" s="15"/>
+      <c r="AL85" s="15"/>
+      <c r="AM85" s="18"/>
+      <c r="AN85" s="7"/>
+    </row>
+    <row r="86" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="6"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="15"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="15"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="15"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="14"/>
+      <c r="X86" s="15"/>
+      <c r="Y86" s="15"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="14"/>
+      <c r="AB86" s="15"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="14"/>
+      <c r="AE86" s="15"/>
+      <c r="AF86" s="15"/>
+      <c r="AG86" s="15"/>
+      <c r="AH86" s="15"/>
+      <c r="AI86" s="15"/>
+      <c r="AJ86" s="15"/>
+      <c r="AK86" s="15"/>
+      <c r="AL86" s="15"/>
+      <c r="AM86" s="18"/>
+      <c r="AN86" s="7"/>
+    </row>
+    <row r="87" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="6"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="13"/>
+      <c r="H87" s="14"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="15"/>
+      <c r="K87" s="17"/>
+      <c r="L87" s="14"/>
+      <c r="M87" s="15"/>
+      <c r="N87" s="17"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="15"/>
+      <c r="R87" s="17"/>
+      <c r="S87" s="14"/>
+      <c r="T87" s="17"/>
+      <c r="U87" s="14"/>
+      <c r="V87" s="17"/>
+      <c r="W87" s="14"/>
+      <c r="X87" s="15"/>
+      <c r="Y87" s="15"/>
+      <c r="Z87" s="17"/>
+      <c r="AA87" s="14"/>
+      <c r="AB87" s="15"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="14"/>
+      <c r="AE87" s="15"/>
+      <c r="AF87" s="15"/>
+      <c r="AG87" s="15"/>
+      <c r="AH87" s="15"/>
+      <c r="AI87" s="15"/>
+      <c r="AJ87" s="15"/>
+      <c r="AK87" s="15"/>
+      <c r="AL87" s="15"/>
+      <c r="AM87" s="18"/>
+      <c r="AN87" s="7"/>
+    </row>
+    <row r="88" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="6"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="14"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="15"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="14"/>
+      <c r="M88" s="15"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="14"/>
+      <c r="P88" s="15"/>
+      <c r="Q88" s="15"/>
+      <c r="R88" s="17"/>
+      <c r="S88" s="14"/>
+      <c r="T88" s="17"/>
+      <c r="U88" s="14"/>
+      <c r="V88" s="17"/>
+      <c r="W88" s="14"/>
+      <c r="X88" s="15"/>
+      <c r="Y88" s="15"/>
+      <c r="Z88" s="17"/>
+      <c r="AA88" s="14"/>
+      <c r="AB88" s="15"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="14"/>
+      <c r="AE88" s="15"/>
+      <c r="AF88" s="15"/>
+      <c r="AG88" s="15"/>
+      <c r="AH88" s="15"/>
+      <c r="AI88" s="15"/>
+      <c r="AJ88" s="15"/>
+      <c r="AK88" s="15"/>
+      <c r="AL88" s="15"/>
+      <c r="AM88" s="18"/>
+      <c r="AN88" s="7"/>
+    </row>
+    <row r="89" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="6"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="14"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="15"/>
+      <c r="K89" s="17"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="15"/>
+      <c r="N89" s="17"/>
+      <c r="O89" s="14"/>
+      <c r="P89" s="15"/>
+      <c r="Q89" s="15"/>
+      <c r="R89" s="17"/>
+      <c r="S89" s="14"/>
+      <c r="T89" s="17"/>
+      <c r="U89" s="14"/>
+      <c r="V89" s="17"/>
+      <c r="W89" s="14"/>
+      <c r="X89" s="15"/>
+      <c r="Y89" s="15"/>
+      <c r="Z89" s="17"/>
+      <c r="AA89" s="14"/>
+      <c r="AB89" s="15"/>
+      <c r="AC89" s="17"/>
+      <c r="AD89" s="14"/>
+      <c r="AE89" s="15"/>
+      <c r="AF89" s="15"/>
+      <c r="AG89" s="15"/>
+      <c r="AH89" s="15"/>
+      <c r="AI89" s="15"/>
+      <c r="AJ89" s="15"/>
+      <c r="AK89" s="15"/>
+      <c r="AL89" s="15"/>
+      <c r="AM89" s="18"/>
+      <c r="AN89" s="7"/>
+    </row>
+    <row r="90" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="6"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="14"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="15"/>
+      <c r="K90" s="17"/>
+      <c r="L90" s="14"/>
+      <c r="M90" s="15"/>
+      <c r="N90" s="17"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="15"/>
+      <c r="R90" s="17"/>
+      <c r="S90" s="14"/>
+      <c r="T90" s="17"/>
+      <c r="U90" s="14"/>
+      <c r="V90" s="17"/>
+      <c r="W90" s="14"/>
+      <c r="X90" s="15"/>
+      <c r="Y90" s="15"/>
+      <c r="Z90" s="17"/>
+      <c r="AA90" s="14"/>
+      <c r="AB90" s="15"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="14"/>
+      <c r="AE90" s="15"/>
+      <c r="AF90" s="15"/>
+      <c r="AG90" s="15"/>
+      <c r="AH90" s="15"/>
+      <c r="AI90" s="15"/>
+      <c r="AJ90" s="15"/>
+      <c r="AK90" s="15"/>
+      <c r="AL90" s="15"/>
+      <c r="AM90" s="18"/>
+      <c r="AN90" s="7"/>
+    </row>
+    <row r="91" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="6"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="14"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="15"/>
+      <c r="K91" s="17"/>
+      <c r="L91" s="14"/>
+      <c r="M91" s="15"/>
+      <c r="N91" s="17"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="15"/>
+      <c r="R91" s="17"/>
+      <c r="S91" s="14"/>
+      <c r="T91" s="17"/>
+      <c r="U91" s="14"/>
+      <c r="V91" s="17"/>
+      <c r="W91" s="14"/>
+      <c r="X91" s="15"/>
+      <c r="Y91" s="15"/>
+      <c r="Z91" s="17"/>
+      <c r="AA91" s="14"/>
+      <c r="AB91" s="15"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="14"/>
+      <c r="AE91" s="15"/>
+      <c r="AF91" s="15"/>
+      <c r="AG91" s="15"/>
+      <c r="AH91" s="15"/>
+      <c r="AI91" s="15"/>
+      <c r="AJ91" s="15"/>
+      <c r="AK91" s="15"/>
+      <c r="AL91" s="15"/>
+      <c r="AM91" s="18"/>
+      <c r="AN91" s="7"/>
+    </row>
+    <row r="92" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="6"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="14"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="15"/>
+      <c r="K92" s="17"/>
+      <c r="L92" s="14"/>
+      <c r="M92" s="15"/>
+      <c r="N92" s="17"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="15"/>
+      <c r="R92" s="17"/>
+      <c r="S92" s="14"/>
+      <c r="T92" s="17"/>
+      <c r="U92" s="14"/>
+      <c r="V92" s="17"/>
+      <c r="W92" s="14"/>
+      <c r="X92" s="15"/>
+      <c r="Y92" s="15"/>
+      <c r="Z92" s="17"/>
+      <c r="AA92" s="14"/>
+      <c r="AB92" s="15"/>
+      <c r="AC92" s="17"/>
+      <c r="AD92" s="14"/>
+      <c r="AE92" s="15"/>
+      <c r="AF92" s="15"/>
+      <c r="AG92" s="15"/>
+      <c r="AH92" s="15"/>
+      <c r="AI92" s="15"/>
+      <c r="AJ92" s="15"/>
+      <c r="AK92" s="15"/>
+      <c r="AL92" s="15"/>
+      <c r="AM92" s="18"/>
+      <c r="AN92" s="7"/>
+    </row>
+    <row r="93" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="6"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="14"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="15"/>
+      <c r="K93" s="17"/>
+      <c r="L93" s="14"/>
+      <c r="M93" s="15"/>
+      <c r="N93" s="17"/>
+      <c r="O93" s="14"/>
+      <c r="P93" s="15"/>
+      <c r="Q93" s="15"/>
+      <c r="R93" s="17"/>
+      <c r="S93" s="14"/>
+      <c r="T93" s="17"/>
+      <c r="U93" s="14"/>
+      <c r="V93" s="17"/>
+      <c r="W93" s="14"/>
+      <c r="X93" s="15"/>
+      <c r="Y93" s="15"/>
+      <c r="Z93" s="17"/>
+      <c r="AA93" s="14"/>
+      <c r="AB93" s="15"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="14"/>
+      <c r="AE93" s="15"/>
+      <c r="AF93" s="15"/>
+      <c r="AG93" s="15"/>
+      <c r="AH93" s="15"/>
+      <c r="AI93" s="15"/>
+      <c r="AJ93" s="15"/>
+      <c r="AK93" s="15"/>
+      <c r="AL93" s="15"/>
+      <c r="AM93" s="18"/>
+      <c r="AN93" s="7"/>
+    </row>
+    <row r="94" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="6"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="14"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="15"/>
+      <c r="K94" s="17"/>
+      <c r="L94" s="14"/>
+      <c r="M94" s="15"/>
+      <c r="N94" s="17"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="15"/>
+      <c r="R94" s="17"/>
+      <c r="S94" s="14"/>
+      <c r="T94" s="17"/>
+      <c r="U94" s="14"/>
+      <c r="V94" s="17"/>
+      <c r="W94" s="14"/>
+      <c r="X94" s="15"/>
+      <c r="Y94" s="15"/>
+      <c r="Z94" s="17"/>
+      <c r="AA94" s="14"/>
+      <c r="AB94" s="15"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="14"/>
+      <c r="AE94" s="15"/>
+      <c r="AF94" s="15"/>
+      <c r="AG94" s="15"/>
+      <c r="AH94" s="15"/>
+      <c r="AI94" s="15"/>
+      <c r="AJ94" s="15"/>
+      <c r="AK94" s="15"/>
+      <c r="AL94" s="15"/>
+      <c r="AM94" s="18"/>
+      <c r="AN94" s="7"/>
+    </row>
+    <row r="95" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="6"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="14"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="15"/>
+      <c r="K95" s="17"/>
+      <c r="L95" s="14"/>
+      <c r="M95" s="15"/>
+      <c r="N95" s="17"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="15"/>
+      <c r="R95" s="17"/>
+      <c r="S95" s="14"/>
+      <c r="T95" s="17"/>
+      <c r="U95" s="14"/>
+      <c r="V95" s="17"/>
+      <c r="W95" s="14"/>
+      <c r="X95" s="15"/>
+      <c r="Y95" s="15"/>
+      <c r="Z95" s="17"/>
+      <c r="AA95" s="14"/>
+      <c r="AB95" s="15"/>
+      <c r="AC95" s="17"/>
+      <c r="AD95" s="14"/>
+      <c r="AE95" s="15"/>
+      <c r="AF95" s="15"/>
+      <c r="AG95" s="15"/>
+      <c r="AH95" s="15"/>
+      <c r="AI95" s="15"/>
+      <c r="AJ95" s="15"/>
+      <c r="AK95" s="15"/>
+      <c r="AL95" s="15"/>
+      <c r="AM95" s="18"/>
+      <c r="AN95" s="7"/>
+    </row>
+    <row r="96" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="6"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="14"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="15"/>
+      <c r="K96" s="17"/>
+      <c r="L96" s="14"/>
+      <c r="M96" s="15"/>
+      <c r="N96" s="17"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="15"/>
+      <c r="R96" s="17"/>
+      <c r="S96" s="14"/>
+      <c r="T96" s="17"/>
+      <c r="U96" s="14"/>
+      <c r="V96" s="17"/>
+      <c r="W96" s="14"/>
+      <c r="X96" s="15"/>
+      <c r="Y96" s="15"/>
+      <c r="Z96" s="17"/>
+      <c r="AA96" s="14"/>
+      <c r="AB96" s="15"/>
+      <c r="AC96" s="17"/>
+      <c r="AD96" s="14"/>
+      <c r="AE96" s="15"/>
+      <c r="AF96" s="15"/>
+      <c r="AG96" s="15"/>
+      <c r="AH96" s="15"/>
+      <c r="AI96" s="15"/>
+      <c r="AJ96" s="15"/>
+      <c r="AK96" s="15"/>
+      <c r="AL96" s="15"/>
+      <c r="AM96" s="18"/>
+      <c r="AN96" s="7"/>
+    </row>
+    <row r="97" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6"/>
+      <c r="B97" s="12"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="14"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="15"/>
+      <c r="K97" s="17"/>
+      <c r="L97" s="14"/>
+      <c r="M97" s="15"/>
+      <c r="N97" s="17"/>
+      <c r="O97" s="14"/>
+      <c r="P97" s="15"/>
+      <c r="Q97" s="15"/>
+      <c r="R97" s="17"/>
+      <c r="S97" s="14"/>
+      <c r="T97" s="17"/>
+      <c r="U97" s="14"/>
+      <c r="V97" s="17"/>
+      <c r="W97" s="14"/>
+      <c r="X97" s="15"/>
+      <c r="Y97" s="15"/>
+      <c r="Z97" s="17"/>
+      <c r="AA97" s="14"/>
+      <c r="AB97" s="15"/>
+      <c r="AC97" s="17"/>
+      <c r="AD97" s="14"/>
+      <c r="AE97" s="15"/>
+      <c r="AF97" s="15"/>
+      <c r="AG97" s="15"/>
+      <c r="AH97" s="15"/>
+      <c r="AI97" s="15"/>
+      <c r="AJ97" s="15"/>
+      <c r="AK97" s="15"/>
+      <c r="AL97" s="15"/>
+      <c r="AM97" s="18"/>
+      <c r="AN97" s="7"/>
+    </row>
+    <row r="98" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="6"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="14"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="15"/>
+      <c r="K98" s="17"/>
+      <c r="L98" s="14"/>
+      <c r="M98" s="15"/>
+      <c r="N98" s="17"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="15"/>
+      <c r="R98" s="17"/>
+      <c r="S98" s="14"/>
+      <c r="T98" s="17"/>
+      <c r="U98" s="14"/>
+      <c r="V98" s="17"/>
+      <c r="W98" s="14"/>
+      <c r="X98" s="15"/>
+      <c r="Y98" s="15"/>
+      <c r="Z98" s="17"/>
+      <c r="AA98" s="14"/>
+      <c r="AB98" s="15"/>
+      <c r="AC98" s="17"/>
+      <c r="AD98" s="14"/>
+      <c r="AE98" s="15"/>
+      <c r="AF98" s="15"/>
+      <c r="AG98" s="15"/>
+      <c r="AH98" s="15"/>
+      <c r="AI98" s="15"/>
+      <c r="AJ98" s="15"/>
+      <c r="AK98" s="15"/>
+      <c r="AL98" s="15"/>
+      <c r="AM98" s="18"/>
+      <c r="AN98" s="7"/>
+    </row>
+    <row r="99" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="6"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="14"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="15"/>
+      <c r="K99" s="17"/>
+      <c r="L99" s="14"/>
+      <c r="M99" s="15"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="15"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="14"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="14"/>
+      <c r="V99" s="17"/>
+      <c r="W99" s="14"/>
+      <c r="X99" s="15"/>
+      <c r="Y99" s="15"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="14"/>
+      <c r="AB99" s="15"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="14"/>
+      <c r="AE99" s="15"/>
+      <c r="AF99" s="15"/>
+      <c r="AG99" s="15"/>
+      <c r="AH99" s="15"/>
+      <c r="AI99" s="15"/>
+      <c r="AJ99" s="15"/>
+      <c r="AK99" s="15"/>
+      <c r="AL99" s="15"/>
+      <c r="AM99" s="18"/>
+      <c r="AN99" s="7"/>
+    </row>
+    <row r="100" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="6"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="14"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="17"/>
+      <c r="L100" s="14"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="14"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="14"/>
+      <c r="V100" s="17"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="14"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="14"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="15"/>
+      <c r="AM100" s="18"/>
+      <c r="AN100" s="7"/>
+    </row>
+    <row r="101" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="6"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="14"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="15"/>
+      <c r="K101" s="17"/>
+      <c r="L101" s="14"/>
+      <c r="M101" s="15"/>
+      <c r="N101" s="17"/>
+      <c r="O101" s="14"/>
+      <c r="P101" s="15"/>
+      <c r="Q101" s="15"/>
+      <c r="R101" s="17"/>
+      <c r="S101" s="14"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="14"/>
+      <c r="V101" s="17"/>
+      <c r="W101" s="14"/>
+      <c r="X101" s="15"/>
+      <c r="Y101" s="15"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="14"/>
+      <c r="AB101" s="15"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="14"/>
+      <c r="AE101" s="15"/>
+      <c r="AF101" s="15"/>
+      <c r="AG101" s="15"/>
+      <c r="AH101" s="15"/>
+      <c r="AI101" s="15"/>
+      <c r="AJ101" s="15"/>
+      <c r="AK101" s="15"/>
+      <c r="AL101" s="15"/>
+      <c r="AM101" s="18"/>
+      <c r="AN101" s="7"/>
+    </row>
+    <row r="102" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="6"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="14"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="15"/>
+      <c r="K102" s="17"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="15"/>
+      <c r="N102" s="17"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="15"/>
+      <c r="R102" s="17"/>
+      <c r="S102" s="14"/>
+      <c r="T102" s="17"/>
+      <c r="U102" s="14"/>
+      <c r="V102" s="17"/>
+      <c r="W102" s="14"/>
+      <c r="X102" s="15"/>
+      <c r="Y102" s="15"/>
+      <c r="Z102" s="17"/>
+      <c r="AA102" s="14"/>
+      <c r="AB102" s="15"/>
+      <c r="AC102" s="17"/>
+      <c r="AD102" s="14"/>
+      <c r="AE102" s="15"/>
+      <c r="AF102" s="15"/>
+      <c r="AG102" s="15"/>
+      <c r="AH102" s="15"/>
+      <c r="AI102" s="15"/>
+      <c r="AJ102" s="15"/>
+      <c r="AK102" s="15"/>
+      <c r="AL102" s="15"/>
+      <c r="AM102" s="18"/>
+      <c r="AN102" s="7"/>
+    </row>
+    <row r="103" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="6"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="14"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="15"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="14"/>
+      <c r="M103" s="15"/>
+      <c r="N103" s="17"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="15"/>
+      <c r="R103" s="17"/>
+      <c r="S103" s="14"/>
+      <c r="T103" s="17"/>
+      <c r="U103" s="14"/>
+      <c r="V103" s="17"/>
+      <c r="W103" s="14"/>
+      <c r="X103" s="15"/>
+      <c r="Y103" s="15"/>
+      <c r="Z103" s="17"/>
+      <c r="AA103" s="14"/>
+      <c r="AB103" s="15"/>
+      <c r="AC103" s="17"/>
+      <c r="AD103" s="14"/>
+      <c r="AE103" s="15"/>
+      <c r="AF103" s="15"/>
+      <c r="AG103" s="15"/>
+      <c r="AH103" s="15"/>
+      <c r="AI103" s="15"/>
+      <c r="AJ103" s="15"/>
+      <c r="AK103" s="15"/>
+      <c r="AL103" s="15"/>
+      <c r="AM103" s="18"/>
+      <c r="AN103" s="7"/>
+    </row>
+    <row r="104" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="6"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="14"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="15"/>
+      <c r="K104" s="17"/>
+      <c r="L104" s="14"/>
+      <c r="M104" s="15"/>
+      <c r="N104" s="17"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="15"/>
+      <c r="R104" s="17"/>
+      <c r="S104" s="14"/>
+      <c r="T104" s="17"/>
+      <c r="U104" s="14"/>
+      <c r="V104" s="17"/>
+      <c r="W104" s="14"/>
+      <c r="X104" s="15"/>
+      <c r="Y104" s="15"/>
+      <c r="Z104" s="17"/>
+      <c r="AA104" s="14"/>
+      <c r="AB104" s="15"/>
+      <c r="AC104" s="17"/>
+      <c r="AD104" s="14"/>
+      <c r="AE104" s="15"/>
+      <c r="AF104" s="15"/>
+      <c r="AG104" s="15"/>
+      <c r="AH104" s="15"/>
+      <c r="AI104" s="15"/>
+      <c r="AJ104" s="15"/>
+      <c r="AK104" s="15"/>
+      <c r="AL104" s="15"/>
+      <c r="AM104" s="18"/>
+      <c r="AN104" s="7"/>
+    </row>
+    <row r="105" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="6"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="14"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="15"/>
+      <c r="K105" s="17"/>
+      <c r="L105" s="14"/>
+      <c r="M105" s="15"/>
+      <c r="N105" s="17"/>
+      <c r="O105" s="14"/>
+      <c r="P105" s="15"/>
+      <c r="Q105" s="15"/>
+      <c r="R105" s="17"/>
+      <c r="S105" s="14"/>
+      <c r="T105" s="17"/>
+      <c r="U105" s="14"/>
+      <c r="V105" s="17"/>
+      <c r="W105" s="14"/>
+      <c r="X105" s="15"/>
+      <c r="Y105" s="15"/>
+      <c r="Z105" s="17"/>
+      <c r="AA105" s="14"/>
+      <c r="AB105" s="15"/>
+      <c r="AC105" s="17"/>
+      <c r="AD105" s="14"/>
+      <c r="AE105" s="15"/>
+      <c r="AF105" s="15"/>
+      <c r="AG105" s="15"/>
+      <c r="AH105" s="15"/>
+      <c r="AI105" s="15"/>
+      <c r="AJ105" s="15"/>
+      <c r="AK105" s="15"/>
+      <c r="AL105" s="15"/>
+      <c r="AM105" s="18"/>
+      <c r="AN105" s="7"/>
+    </row>
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="6"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="14"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="15"/>
+      <c r="K106" s="17"/>
+      <c r="L106" s="14"/>
+      <c r="M106" s="15"/>
+      <c r="N106" s="17"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="15"/>
+      <c r="R106" s="17"/>
+      <c r="S106" s="14"/>
+      <c r="T106" s="17"/>
+      <c r="U106" s="14"/>
+      <c r="V106" s="17"/>
+      <c r="W106" s="14"/>
+      <c r="X106" s="15"/>
+      <c r="Y106" s="15"/>
+      <c r="Z106" s="17"/>
+      <c r="AA106" s="14"/>
+      <c r="AB106" s="15"/>
+      <c r="AC106" s="17"/>
+      <c r="AD106" s="14"/>
+      <c r="AE106" s="15"/>
+      <c r="AF106" s="15"/>
+      <c r="AG106" s="15"/>
+      <c r="AH106" s="15"/>
+      <c r="AI106" s="15"/>
+      <c r="AJ106" s="15"/>
+      <c r="AK106" s="15"/>
+      <c r="AL106" s="15"/>
+      <c r="AM106" s="18"/>
+      <c r="AN106" s="7"/>
+    </row>
+    <row r="107" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="6"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="14"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="15"/>
+      <c r="K107" s="17"/>
+      <c r="L107" s="14"/>
+      <c r="M107" s="15"/>
+      <c r="N107" s="17"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="15"/>
+      <c r="R107" s="17"/>
+      <c r="S107" s="14"/>
+      <c r="T107" s="17"/>
+      <c r="U107" s="14"/>
+      <c r="V107" s="17"/>
+      <c r="W107" s="14"/>
+      <c r="X107" s="15"/>
+      <c r="Y107" s="15"/>
+      <c r="Z107" s="17"/>
+      <c r="AA107" s="14"/>
+      <c r="AB107" s="15"/>
+      <c r="AC107" s="17"/>
+      <c r="AD107" s="14"/>
+      <c r="AE107" s="15"/>
+      <c r="AF107" s="15"/>
+      <c r="AG107" s="15"/>
+      <c r="AH107" s="15"/>
+      <c r="AI107" s="15"/>
+      <c r="AJ107" s="15"/>
+      <c r="AK107" s="15"/>
+      <c r="AL107" s="15"/>
+      <c r="AM107" s="18"/>
+      <c r="AN107" s="7"/>
+    </row>
+    <row r="108" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="6"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="14"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="15"/>
+      <c r="K108" s="17"/>
+      <c r="L108" s="14"/>
+      <c r="M108" s="15"/>
+      <c r="N108" s="17"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="15"/>
+      <c r="R108" s="17"/>
+      <c r="S108" s="14"/>
+      <c r="T108" s="17"/>
+      <c r="U108" s="14"/>
+      <c r="V108" s="17"/>
+      <c r="W108" s="14"/>
+      <c r="X108" s="15"/>
+      <c r="Y108" s="15"/>
+      <c r="Z108" s="17"/>
+      <c r="AA108" s="14"/>
+      <c r="AB108" s="15"/>
+      <c r="AC108" s="17"/>
+      <c r="AD108" s="14"/>
+      <c r="AE108" s="15"/>
+      <c r="AF108" s="15"/>
+      <c r="AG108" s="15"/>
+      <c r="AH108" s="15"/>
+      <c r="AI108" s="15"/>
+      <c r="AJ108" s="15"/>
+      <c r="AK108" s="15"/>
+      <c r="AL108" s="15"/>
+      <c r="AM108" s="18"/>
+      <c r="AN108" s="7"/>
+    </row>
+    <row r="109" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="6"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="14"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="15"/>
+      <c r="K109" s="17"/>
+      <c r="L109" s="14"/>
+      <c r="M109" s="15"/>
+      <c r="N109" s="17"/>
+      <c r="O109" s="14"/>
+      <c r="P109" s="15"/>
+      <c r="Q109" s="15"/>
+      <c r="R109" s="17"/>
+      <c r="S109" s="14"/>
+      <c r="T109" s="17"/>
+      <c r="U109" s="14"/>
+      <c r="V109" s="17"/>
+      <c r="W109" s="14"/>
+      <c r="X109" s="15"/>
+      <c r="Y109" s="15"/>
+      <c r="Z109" s="17"/>
+      <c r="AA109" s="14"/>
+      <c r="AB109" s="15"/>
+      <c r="AC109" s="17"/>
+      <c r="AD109" s="14"/>
+      <c r="AE109" s="15"/>
+      <c r="AF109" s="15"/>
+      <c r="AG109" s="15"/>
+      <c r="AH109" s="15"/>
+      <c r="AI109" s="15"/>
+      <c r="AJ109" s="15"/>
+      <c r="AK109" s="15"/>
+      <c r="AL109" s="15"/>
+      <c r="AM109" s="18"/>
+      <c r="AN109" s="7"/>
+    </row>
+    <row r="110" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="6"/>
+      <c r="B110" s="12"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="14"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="15"/>
+      <c r="K110" s="17"/>
+      <c r="L110" s="14"/>
+      <c r="M110" s="15"/>
+      <c r="N110" s="17"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="15"/>
+      <c r="R110" s="17"/>
+      <c r="S110" s="14"/>
+      <c r="T110" s="17"/>
+      <c r="U110" s="14"/>
+      <c r="V110" s="17"/>
+      <c r="W110" s="14"/>
+      <c r="X110" s="15"/>
+      <c r="Y110" s="15"/>
+      <c r="Z110" s="17"/>
+      <c r="AA110" s="14"/>
+      <c r="AB110" s="15"/>
+      <c r="AC110" s="17"/>
+      <c r="AD110" s="14"/>
+      <c r="AE110" s="15"/>
+      <c r="AF110" s="15"/>
+      <c r="AG110" s="15"/>
+      <c r="AH110" s="15"/>
+      <c r="AI110" s="15"/>
+      <c r="AJ110" s="15"/>
+      <c r="AK110" s="15"/>
+      <c r="AL110" s="15"/>
+      <c r="AM110" s="18"/>
+      <c r="AN110" s="7"/>
+    </row>
+    <row r="111" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="6"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="14"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="15"/>
+      <c r="K111" s="17"/>
+      <c r="L111" s="14"/>
+      <c r="M111" s="15"/>
+      <c r="N111" s="17"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="15"/>
+      <c r="R111" s="17"/>
+      <c r="S111" s="14"/>
+      <c r="T111" s="17"/>
+      <c r="U111" s="14"/>
+      <c r="V111" s="17"/>
+      <c r="W111" s="14"/>
+      <c r="X111" s="15"/>
+      <c r="Y111" s="15"/>
+      <c r="Z111" s="17"/>
+      <c r="AA111" s="14"/>
+      <c r="AB111" s="15"/>
+      <c r="AC111" s="17"/>
+      <c r="AD111" s="14"/>
+      <c r="AE111" s="15"/>
+      <c r="AF111" s="15"/>
+      <c r="AG111" s="15"/>
+      <c r="AH111" s="15"/>
+      <c r="AI111" s="15"/>
+      <c r="AJ111" s="15"/>
+      <c r="AK111" s="15"/>
+      <c r="AL111" s="15"/>
+      <c r="AM111" s="18"/>
+      <c r="AN111" s="7"/>
+    </row>
+    <row r="112" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="6"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="13"/>
+      <c r="H112" s="14"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="15"/>
+      <c r="K112" s="17"/>
+      <c r="L112" s="14"/>
+      <c r="M112" s="15"/>
+      <c r="N112" s="17"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="15"/>
+      <c r="R112" s="17"/>
+      <c r="S112" s="14"/>
+      <c r="T112" s="17"/>
+      <c r="U112" s="14"/>
+      <c r="V112" s="17"/>
+      <c r="W112" s="14"/>
+      <c r="X112" s="15"/>
+      <c r="Y112" s="15"/>
+      <c r="Z112" s="17"/>
+      <c r="AA112" s="14"/>
+      <c r="AB112" s="15"/>
+      <c r="AC112" s="17"/>
+      <c r="AD112" s="14"/>
+      <c r="AE112" s="15"/>
+      <c r="AF112" s="15"/>
+      <c r="AG112" s="15"/>
+      <c r="AH112" s="15"/>
+      <c r="AI112" s="15"/>
+      <c r="AJ112" s="15"/>
+      <c r="AK112" s="15"/>
+      <c r="AL112" s="15"/>
+      <c r="AM112" s="18"/>
+      <c r="AN112" s="7"/>
+    </row>
+    <row r="113" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="6"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="13"/>
+      <c r="H113" s="14"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="15"/>
+      <c r="K113" s="17"/>
+      <c r="L113" s="14"/>
+      <c r="M113" s="15"/>
+      <c r="N113" s="17"/>
+      <c r="O113" s="14"/>
+      <c r="P113" s="15"/>
+      <c r="Q113" s="15"/>
+      <c r="R113" s="17"/>
+      <c r="S113" s="14"/>
+      <c r="T113" s="17"/>
+      <c r="U113" s="14"/>
+      <c r="V113" s="17"/>
+      <c r="W113" s="14"/>
+      <c r="X113" s="15"/>
+      <c r="Y113" s="15"/>
+      <c r="Z113" s="17"/>
+      <c r="AA113" s="14"/>
+      <c r="AB113" s="15"/>
+      <c r="AC113" s="17"/>
+      <c r="AD113" s="14"/>
+      <c r="AE113" s="15"/>
+      <c r="AF113" s="15"/>
+      <c r="AG113" s="15"/>
+      <c r="AH113" s="15"/>
+      <c r="AI113" s="15"/>
+      <c r="AJ113" s="15"/>
+      <c r="AK113" s="15"/>
+      <c r="AL113" s="15"/>
+      <c r="AM113" s="18"/>
+      <c r="AN113" s="7"/>
+    </row>
+    <row r="114" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="6"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="13"/>
+      <c r="H114" s="14"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="15"/>
+      <c r="K114" s="17"/>
+      <c r="L114" s="14"/>
+      <c r="M114" s="15"/>
+      <c r="N114" s="17"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="15"/>
+      <c r="R114" s="17"/>
+      <c r="S114" s="14"/>
+      <c r="T114" s="17"/>
+      <c r="U114" s="14"/>
+      <c r="V114" s="17"/>
+      <c r="W114" s="14"/>
+      <c r="X114" s="15"/>
+      <c r="Y114" s="15"/>
+      <c r="Z114" s="17"/>
+      <c r="AA114" s="14"/>
+      <c r="AB114" s="15"/>
+      <c r="AC114" s="17"/>
+      <c r="AD114" s="14"/>
+      <c r="AE114" s="15"/>
+      <c r="AF114" s="15"/>
+      <c r="AG114" s="15"/>
+      <c r="AH114" s="15"/>
+      <c r="AI114" s="15"/>
+      <c r="AJ114" s="15"/>
+      <c r="AK114" s="15"/>
+      <c r="AL114" s="15"/>
+      <c r="AM114" s="18"/>
+      <c r="AN114" s="7"/>
+    </row>
+    <row r="115" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="9"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="10"/>
+      <c r="AB115" s="10"/>
+      <c r="AC115" s="10"/>
+      <c r="AD115" s="10"/>
+      <c r="AE115" s="10"/>
+      <c r="AF115" s="10"/>
+      <c r="AG115" s="10"/>
+      <c r="AH115" s="10"/>
+      <c r="AI115" s="10"/>
+      <c r="AJ115" s="10"/>
+      <c r="AK115" s="10"/>
+      <c r="AL115" s="10"/>
+      <c r="AM115" s="10"/>
+      <c r="AN115" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/doc/02_外部設計/02_外部設計書_A4.xlsx
+++ b/doc/02_外部設計/02_外部設計書_A4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\A4\doc\02_外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A007BE72-D5A6-4441-B74A-59A21457EE3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05B4A3E-C361-41C4-925D-EA99630F4DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -2700,6 +2700,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2756,8 +2759,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2797,12 +2803,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3941,137 +3941,25 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>7580</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="5181600" cy="2849142"/>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{305AC421-AE01-4972-A28F-B7CEDF1C031F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="350520" y="1211580"/>
-          <a:ext cx="5181600" cy="2849142"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4183380" cy="911988"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85338F25-BCDE-46A1-9372-602C6F07D905}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="335280" y="3794760"/>
-          <a:ext cx="4183380" cy="911988"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>44875</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4571999" cy="2826672"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D08F68-F637-4072-A55B-EEFF54AFD88A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="403860" y="4571155"/>
-          <a:ext cx="4571999" cy="2826672"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>60865</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4975860" cy="3066326"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B03D377-7938-4CB3-AF67-F180F942F382}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2794556-DC73-0C65-471D-17FF6014528B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4080,7 +3968,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -4094,8 +3982,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="350520" y="9783985"/>
-          <a:ext cx="4975860" cy="3066326"/>
+          <a:off x="472440" y="1341080"/>
+          <a:ext cx="4930140" cy="2895639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4113,21 +4001,192 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>103000</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>27722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>106679</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="4507842" cy="2735581"/>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34CF87B9-B18E-42FC-A44E-AEF98FFB59C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06DCFA1C-F93F-A248-EC79-5C5B67D30EFE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="426720" y="4218722"/>
+          <a:ext cx="4831080" cy="932398"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>147089</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF74F678-A02B-A78A-1F18-1C935AF4AEFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="396240" y="5181600"/>
+          <a:ext cx="5458229" cy="3345180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>55392</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>135891</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F423FA-35EC-EDFC-C659-A2615EE38CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="426720" y="10723392"/>
+          <a:ext cx="5501640" cy="3318999"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>73222</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>65326</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B1EF4A2-4145-B1CA-3ADC-6C6297D727F6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4143,8 +4202,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5132200" y="4632959"/>
-          <a:ext cx="4507842" cy="2735581"/>
+          <a:off x="5958840" y="5227320"/>
+          <a:ext cx="4264222" cy="2648506"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4152,21 +4211,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>34908</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4454423" cy="2674620"/>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>62205</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6">
+        <xdr:cNvPr id="13" name="図 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{876F49C5-7D03-4CAA-8CCB-1EA2708AFC5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6445E345-4215-E42F-5576-5D27712AD2CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4189,8 +4253,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5181599" y="7109460"/>
-          <a:ext cx="4454423" cy="2674620"/>
+          <a:off x="5928360" y="8035908"/>
+          <a:ext cx="4450081" cy="2694297"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4208,65 +4272,92 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="4296022" cy="2362200"/>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>60999</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1">
+        <xdr:cNvPr id="6" name="図 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14AE518E-C4A1-414C-A795-849F56CB012A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F551DD-6D4F-4FF4-B713-6BEB25B4AFA7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="541020" y="1181100"/>
-          <a:ext cx="4296022" cy="2362200"/>
+          <a:off x="472440" y="1356360"/>
+          <a:ext cx="4930140" cy="2895639"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>14273</xdr:rowOff>
+      <xdr:rowOff>18786</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3901440" cy="2318064"/>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="7" name="図 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B3FE56C-34D8-44CE-A908-183E8C48C821}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{582D83D3-5184-2386-36EA-5504BC8768F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4289,8 +4380,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5303520" y="1187753"/>
-          <a:ext cx="3901440" cy="2318064"/>
+          <a:off x="5631180" y="1352286"/>
+          <a:ext cx="4693920" cy="2800613"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4308,21 +4399,26 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>53341</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>52754</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>84168</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="3901439" cy="2400885"/>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>206636</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
+        <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5893C3D5-C040-4278-85BA-89BB7F1FB832}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71DE36D2-424C-E3FB-D19F-4F937BE68AD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4345,8 +4441,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5334001" y="3573194"/>
-          <a:ext cx="3901439" cy="2400885"/>
+          <a:off x="5570220" y="4275168"/>
+          <a:ext cx="4839596" cy="2910492"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4364,7 +4460,7 @@
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
-  </xdr:oneCellAnchor>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9034,200 +9130,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>96</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="50" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="54">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="55">
         <v>45455</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="55" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="57"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="58" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -13645,6 +13741,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -13661,7 +13758,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -13691,200 +13787,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51" t="s">
         <v>99</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="50" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="54">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="55">
         <v>45455</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="55" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="57"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="58" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18320,6 +18416,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -18336,7 +18433,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -18352,8 +18448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D77E9DA-BCB8-407C-9939-E86B747FB76E}">
   <dimension ref="A1:AL185"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="R135" sqref="R135"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="Z48" sqref="Z48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18369,186 +18465,186 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="48"/>
-      <c r="N1" s="48"/>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="49"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="50"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="V2" s="51"/>
+      <c r="W2" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="51" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AE2" s="51"/>
-      <c r="AF2" s="52"/>
-      <c r="AG2" s="52"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="53"/>
+      <c r="AE2" s="52"/>
+      <c r="AF2" s="53"/>
+      <c r="AG2" s="53"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="54"/>
     </row>
     <row r="3" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="50" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="54">
+      <c r="V3" s="51"/>
+      <c r="W3" s="55">
         <v>45455</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="55" t="s">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="51"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AE3" s="55"/>
-      <c r="AF3" s="56"/>
-      <c r="AG3" s="56"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="57"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="58"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="58" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="41"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -18795,7 +18891,7 @@
       <c r="AK11" s="7"/>
       <c r="AL11" s="7"/>
     </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
@@ -18819,7 +18915,7 @@
       <c r="U12" s="8"/>
       <c r="V12" s="8"/>
       <c r="W12" s="8"/>
-      <c r="X12" s="8"/>
+      <c r="X12"/>
       <c r="Y12" s="8"/>
       <c r="Z12" s="8"/>
       <c r="AA12" s="8"/>
@@ -19179,7 +19275,7 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
     </row>
-    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="E22" s="8"/>
@@ -19200,7 +19296,7 @@
       <c r="T22" s="8"/>
       <c r="U22" s="8"/>
       <c r="V22" s="8"/>
-      <c r="W22" s="8"/>
+      <c r="W22"/>
       <c r="X22" s="8"/>
       <c r="Y22" s="8"/>
       <c r="Z22" s="8"/>
@@ -20191,7 +20287,7 @@
       <c r="W48" s="8"/>
       <c r="X48" s="8"/>
       <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
+      <c r="Z48"/>
       <c r="AA48" s="8"/>
       <c r="AB48" s="8"/>
       <c r="AC48" s="8"/>
@@ -26388,11 +26484,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="W3:AC3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:AL4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="M1:AL1"/>
@@ -26405,6 +26496,11 @@
     <mergeCell ref="K3:L3"/>
     <mergeCell ref="M3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:AC3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:AL4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -26420,8 +26516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0489D0B9-FF55-4ED9-9BC1-3CD400143D94}">
   <dimension ref="A1:AN106"/>
   <sheetViews>
-    <sheetView topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="L106" sqref="L106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AT35" sqref="AT35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26436,200 +26532,200 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="50" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="54">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="55">
         <v>45455</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="55" t="s">
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="57"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="58" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -27372,7 +27468,7 @@
       <c r="AM23" s="7"/>
       <c r="AN23" s="7"/>
     </row>
-    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="E24" s="8"/>
@@ -27398,7 +27494,7 @@
       <c r="Y24" s="8"/>
       <c r="Z24" s="8"/>
       <c r="AA24" s="8"/>
-      <c r="AB24" s="8"/>
+      <c r="AB24"/>
       <c r="AC24" s="8"/>
       <c r="AD24" s="8"/>
       <c r="AE24" s="8"/>
@@ -30856,7 +30952,7 @@
       <c r="AM105" s="18"/>
       <c r="AN105" s="7"/>
     </row>
-    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="37"/>
       <c r="B106" s="37"/>
       <c r="C106" s="37"/>
@@ -30868,7 +30964,7 @@
       <c r="I106" s="37"/>
       <c r="J106" s="37"/>
       <c r="K106" s="37"/>
-      <c r="L106" s="37"/>
+      <c r="L106"/>
       <c r="M106" s="37"/>
       <c r="N106" s="37"/>
       <c r="O106" s="37"/>
@@ -30900,11 +30996,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="Y3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -30917,6 +31008,11 @@
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:V3"/>
     <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AN3"/>
+    <mergeCell ref="K4:M4"/>
+    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -30932,7 +31028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06FB5A93-A96F-477C-982B-EB1F7FB283BD}">
   <dimension ref="A1:AN128"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K87" sqref="K86:K87"/>
     </sheetView>
   </sheetViews>
@@ -30948,198 +31044,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="47" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="48" t="s">
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="48"/>
-      <c r="P1" s="48"/>
-      <c r="Q1" s="48"/>
-      <c r="R1" s="48"/>
-      <c r="S1" s="48"/>
-      <c r="T1" s="48"/>
-      <c r="U1" s="48"/>
-      <c r="V1" s="48"/>
-      <c r="W1" s="48"/>
-      <c r="X1" s="48"/>
-      <c r="Y1" s="48"/>
-      <c r="Z1" s="48"/>
-      <c r="AA1" s="48"/>
-      <c r="AB1" s="48"/>
-      <c r="AC1" s="48"/>
-      <c r="AD1" s="48"/>
-      <c r="AE1" s="48"/>
-      <c r="AF1" s="48"/>
-      <c r="AG1" s="48"/>
-      <c r="AH1" s="48"/>
-      <c r="AI1" s="48"/>
-      <c r="AJ1" s="48"/>
-      <c r="AK1" s="48"/>
-      <c r="AL1" s="48"/>
-      <c r="AM1" s="48"/>
-      <c r="AN1" s="49"/>
+      <c r="O1" s="49"/>
+      <c r="P1" s="49"/>
+      <c r="Q1" s="49"/>
+      <c r="R1" s="49"/>
+      <c r="S1" s="49"/>
+      <c r="T1" s="49"/>
+      <c r="U1" s="49"/>
+      <c r="V1" s="49"/>
+      <c r="W1" s="49"/>
+      <c r="X1" s="49"/>
+      <c r="Y1" s="49"/>
+      <c r="Z1" s="49"/>
+      <c r="AA1" s="49"/>
+      <c r="AB1" s="49"/>
+      <c r="AC1" s="49"/>
+      <c r="AD1" s="49"/>
+      <c r="AE1" s="49"/>
+      <c r="AF1" s="49"/>
+      <c r="AG1" s="49"/>
+      <c r="AH1" s="49"/>
+      <c r="AI1" s="49"/>
+      <c r="AJ1" s="49"/>
+      <c r="AK1" s="49"/>
+      <c r="AL1" s="49"/>
+      <c r="AM1" s="49"/>
+      <c r="AN1" s="50"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="50" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50" t="s">
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51" t="s">
         <v>101</v>
       </c>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50" t="s">
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50" t="s">
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="Z2" s="50"/>
-      <c r="AA2" s="50"/>
-      <c r="AB2" s="50"/>
-      <c r="AC2" s="50"/>
-      <c r="AD2" s="50"/>
-      <c r="AE2" s="50"/>
-      <c r="AF2" s="51" t="s">
+      <c r="Z2" s="51"/>
+      <c r="AA2" s="51"/>
+      <c r="AB2" s="51"/>
+      <c r="AC2" s="51"/>
+      <c r="AD2" s="51"/>
+      <c r="AE2" s="51"/>
+      <c r="AF2" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="51"/>
-      <c r="AH2" s="52"/>
-      <c r="AI2" s="52"/>
-      <c r="AJ2" s="52"/>
-      <c r="AK2" s="52"/>
-      <c r="AL2" s="52"/>
-      <c r="AM2" s="52"/>
-      <c r="AN2" s="53"/>
+      <c r="AG2" s="52"/>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="54"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="50" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="50"/>
-      <c r="AB3" s="50"/>
-      <c r="AC3" s="50"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="55" t="s">
+      <c r="X3" s="51"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="51"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="51"/>
+      <c r="AC3" s="51"/>
+      <c r="AD3" s="51"/>
+      <c r="AE3" s="51"/>
+      <c r="AF3" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="57"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="57"/>
+      <c r="AI3" s="57"/>
+      <c r="AJ3" s="57"/>
+      <c r="AK3" s="57"/>
+      <c r="AL3" s="57"/>
+      <c r="AM3" s="57"/>
+      <c r="AN3" s="58"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="58" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="58"/>
-      <c r="M4" s="58"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="S4" s="39"/>
-      <c r="T4" s="39"/>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AG4" s="39"/>
-      <c r="AH4" s="39"/>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="40"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="40"/>
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AG4" s="40"/>
+      <c r="AH4" s="40"/>
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="41"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -36999,6 +37095,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -37015,7 +37112,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37047,202 +37143,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="62" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="63" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="62" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="62" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="66">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="68">
         <v>45454</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="67" t="s">
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="68">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="70">
         <v>45455</v>
       </c>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="70"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="72"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="71" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -43073,6 +43169,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
@@ -43089,7 +43186,6 @@
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
-    <mergeCell ref="K4:M4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -43121,202 +43217,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="62" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="63" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="62" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="62" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="66">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="68">
         <v>45454</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="67" t="s">
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="68">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="70">
         <v>45455</v>
       </c>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="70"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="72"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="71" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -49347,6 +49443,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -49363,7 +49460,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -49395,202 +49491,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="62" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="63" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="62" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="62" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="66">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="68">
         <v>45455</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="67" t="s">
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="68">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="70">
         <v>45455</v>
       </c>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="70"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="72"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="71" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -55639,6 +55735,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
     <mergeCell ref="K1:M1"/>
     <mergeCell ref="N1:AN1"/>
@@ -55655,7 +55752,6 @@
     <mergeCell ref="AF3:AG3"/>
     <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
-    <mergeCell ref="N4:AN4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -55671,7 +55767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09F54775-DFA2-4CC0-831C-9D7570CC12E1}">
   <dimension ref="A1:AN133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z91" sqref="Z91"/>
     </sheetView>
   </sheetViews>
@@ -55689,202 +55785,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="60" t="s">
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60"/>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="61"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="62"/>
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62"/>
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="62" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="L2" s="62"/>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62" t="s">
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64" t="s">
         <v>257</v>
       </c>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="62"/>
-      <c r="V2" s="62"/>
-      <c r="W2" s="62" t="s">
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="X2" s="62"/>
-      <c r="Y2" s="62" t="s">
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="62"/>
-      <c r="AA2" s="62"/>
-      <c r="AB2" s="62"/>
-      <c r="AC2" s="62"/>
-      <c r="AD2" s="62"/>
-      <c r="AE2" s="62"/>
-      <c r="AF2" s="63" t="s">
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="66"/>
+      <c r="AJ2" s="66"/>
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="67"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="62" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="45"/>
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="50" t="s">
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="62" t="s">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="51"/>
+      <c r="V3" s="51"/>
+      <c r="W3" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="66">
+      <c r="X3" s="64"/>
+      <c r="Y3" s="68">
         <v>45455</v>
       </c>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="67" t="s">
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="68">
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="70">
         <v>45455</v>
       </c>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="70"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="72"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="71" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="71"/>
-      <c r="M4" s="71"/>
-      <c r="N4" s="72"/>
-      <c r="O4" s="72"/>
-      <c r="P4" s="72"/>
-      <c r="Q4" s="72"/>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="73"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="59"/>
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="59"/>
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="60"/>
     </row>
     <row r="5" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="2"/>
@@ -61912,6 +62008,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AH3:AN3"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:AN4"/>
     <mergeCell ref="A1:J4"/>
@@ -61928,7 +62025,6 @@
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:AE3"/>
     <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
